--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3008392.398949228</v>
+        <v>3005874.958019107</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302513.0374631704</v>
+        <v>302513.0374631691</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,61 +750,61 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.018462044011844</v>
       </c>
     </row>
     <row r="4">
@@ -814,73 +814,73 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
+        <v>4.018462044011843</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,73 +972,73 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,52 +1057,52 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T7" t="n">
         <v>6.876045741711437</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,14 +1178,14 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,61 +1294,61 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="R10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J10" t="n">
+      <c r="V10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.9120727823635</v>
+        <v>350.9073146978278</v>
       </c>
       <c r="C11" t="n">
         <v>333.4463648053547</v>
@@ -1385,7 +1385,7 @@
         <v>378.3485417933879</v>
       </c>
       <c r="H11" t="n">
-        <v>255.1345375017634</v>
+        <v>255.1345375017633</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>337.9045737128162</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.4114116904008</v>
+        <v>344.4161697749381</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.5999725075324</v>
       </c>
       <c r="H12" t="n">
-        <v>85.73857874613064</v>
+        <v>85.73857874613063</v>
       </c>
       <c r="I12" t="n">
-        <v>5.062618828623201</v>
+        <v>5.062618828623187</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>116.7889460525595</v>
       </c>
       <c r="E13" t="n">
-        <v>114.6074356809163</v>
+        <v>114.6074356809164</v>
       </c>
       <c r="F13" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G13" t="n">
-        <v>133.8643567151234</v>
+        <v>133.8643567151242</v>
       </c>
       <c r="H13" t="n">
         <v>109.9507039711189</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04619875863011</v>
+        <v>42.04619875863013</v>
       </c>
       <c r="S13" t="n">
-        <v>152.1056763975257</v>
+        <v>152.1056763975258</v>
       </c>
       <c r="T13" t="n">
-        <v>186.2913809307136</v>
+        <v>186.2913809307126</v>
       </c>
       <c r="U13" t="n">
         <v>254.3670426266008</v>
@@ -1594,7 +1594,7 @@
         <v>193.8831284233843</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.7581263864419</v>
+        <v>186.758126386442</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>378.3485417933879</v>
       </c>
       <c r="H14" t="n">
-        <v>255.1345375017633</v>
+        <v>245.1392955863008</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.346790841093</v>
+        <v>60.34679084109302</v>
       </c>
       <c r="T14" t="n">
-        <v>158.8277107032114</v>
+        <v>168.8229526186756</v>
       </c>
       <c r="U14" t="n">
         <v>219.1089124416961</v>
@@ -1771,19 +1771,19 @@
         <v>116.7889460525595</v>
       </c>
       <c r="E16" t="n">
-        <v>114.6074356809163</v>
+        <v>114.6074356809164</v>
       </c>
       <c r="F16" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G16" t="n">
-        <v>133.8643567151234</v>
+        <v>133.8643567151235</v>
       </c>
       <c r="H16" t="n">
         <v>109.9507039711189</v>
       </c>
       <c r="I16" t="n">
-        <v>54.45379794548154</v>
+        <v>54.45379794548155</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.0461987586301</v>
+        <v>42.04619875863013</v>
       </c>
       <c r="S16" t="n">
-        <v>152.1056763975257</v>
+        <v>152.1056763975258</v>
       </c>
       <c r="T16" t="n">
         <v>186.2913809307126</v>
       </c>
       <c r="U16" t="n">
-        <v>254.3670426266021</v>
+        <v>254.3670426266008</v>
       </c>
       <c r="V16" t="n">
         <v>220.3111163581752</v>
@@ -1831,7 +1831,7 @@
         <v>193.8831284233843</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.7581263864419</v>
+        <v>186.758126386442</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>350.9073146978278</v>
       </c>
       <c r="C17" t="n">
-        <v>333.4463648053547</v>
+        <v>323.4511228898912</v>
       </c>
       <c r="D17" t="n">
         <v>322.8565146550301</v>
@@ -1856,10 +1856,10 @@
         <v>375.0495187760586</v>
       </c>
       <c r="G17" t="n">
-        <v>368.3532998779227</v>
+        <v>378.3485417933879</v>
       </c>
       <c r="H17" t="n">
-        <v>255.1345375017634</v>
+        <v>255.1345375017633</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.34679084109304</v>
+        <v>60.34679084109305</v>
       </c>
       <c r="T17" t="n">
-        <v>168.8229526186756</v>
+        <v>168.8229526186757</v>
       </c>
       <c r="U17" t="n">
-        <v>219.1089124416961</v>
+        <v>219.1089124416962</v>
       </c>
       <c r="V17" t="n">
         <v>295.9257315044821</v>
@@ -1938,10 +1938,10 @@
         <v>134.5999725075324</v>
       </c>
       <c r="H18" t="n">
-        <v>85.73857874613064</v>
+        <v>85.73857874613063</v>
       </c>
       <c r="I18" t="n">
-        <v>5.062618828623229</v>
+        <v>5.062618828623187</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>135.420294132975</v>
       </c>
       <c r="D19" t="n">
-        <v>116.7889460525595</v>
+        <v>116.7889460525596</v>
       </c>
       <c r="E19" t="n">
-        <v>114.6074356809163</v>
+        <v>114.6074356809164</v>
       </c>
       <c r="F19" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G19" t="n">
-        <v>133.8643567151234</v>
+        <v>133.8643567151235</v>
       </c>
       <c r="H19" t="n">
         <v>109.9507039711189</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04619875863013</v>
+        <v>42.04619875863014</v>
       </c>
       <c r="S19" t="n">
         <v>152.1056763975258</v>
       </c>
       <c r="T19" t="n">
-        <v>186.2913809307126</v>
+        <v>186.2913809307127</v>
       </c>
       <c r="U19" t="n">
-        <v>254.3670426266008</v>
+        <v>254.3670426266009</v>
       </c>
       <c r="V19" t="n">
         <v>220.3111163581752</v>
@@ -2065,10 +2065,10 @@
         <v>254.6964713709382</v>
       </c>
       <c r="X19" t="n">
-        <v>193.8831284233843</v>
+        <v>193.8831284233844</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.7581263864419</v>
+        <v>186.758126386442</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>375.0495187760586</v>
       </c>
       <c r="G20" t="n">
-        <v>368.3532998779227</v>
+        <v>368.3532998779245</v>
       </c>
       <c r="H20" t="n">
         <v>255.1345375017634</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.34679084109302</v>
+        <v>60.34679084109308</v>
       </c>
       <c r="T20" t="n">
-        <v>168.8229526186756</v>
+        <v>168.8229526186757</v>
       </c>
       <c r="U20" t="n">
-        <v>219.1089124416961</v>
+        <v>219.1089124416962</v>
       </c>
       <c r="V20" t="n">
         <v>295.9257315044821</v>
@@ -2242,22 +2242,22 @@
         <v>135.420294132975</v>
       </c>
       <c r="D22" t="n">
-        <v>116.7889460525595</v>
+        <v>116.7889460525596</v>
       </c>
       <c r="E22" t="n">
-        <v>114.6074356809163</v>
+        <v>114.6074356809164</v>
       </c>
       <c r="F22" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G22" t="n">
-        <v>133.8643567151234</v>
+        <v>133.8643567151235</v>
       </c>
       <c r="H22" t="n">
-        <v>109.9507039711189</v>
+        <v>109.950703971119</v>
       </c>
       <c r="I22" t="n">
-        <v>54.45379794548155</v>
+        <v>54.45379794548158</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04619875863013</v>
+        <v>42.04619875863017</v>
       </c>
       <c r="S22" t="n">
-        <v>152.1056763975257</v>
+        <v>152.1056763975258</v>
       </c>
       <c r="T22" t="n">
-        <v>186.2913809307126</v>
+        <v>186.2913809307127</v>
       </c>
       <c r="U22" t="n">
-        <v>254.3670426266008</v>
+        <v>254.3670426266009</v>
       </c>
       <c r="V22" t="n">
         <v>220.3111163581752</v>
@@ -2302,10 +2302,10 @@
         <v>254.6964713709382</v>
       </c>
       <c r="X22" t="n">
-        <v>193.8831284233843</v>
+        <v>193.8831284233844</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.7581263864419</v>
+        <v>186.758126386442</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>322.8565146550301</v>
       </c>
       <c r="E23" t="n">
-        <v>350.103843106609</v>
+        <v>340.1086011911457</v>
       </c>
       <c r="F23" t="n">
         <v>375.0495187760586</v>
@@ -2333,7 +2333,7 @@
         <v>378.3485417933879</v>
       </c>
       <c r="H23" t="n">
-        <v>245.1392955862999</v>
+        <v>255.1345375017634</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.34679084109302</v>
+        <v>60.34679084109308</v>
       </c>
       <c r="T23" t="n">
-        <v>168.8229526186756</v>
+        <v>168.8229526186757</v>
       </c>
       <c r="U23" t="n">
-        <v>219.1089124416961</v>
+        <v>219.1089124416962</v>
       </c>
       <c r="V23" t="n">
         <v>295.9257315044821</v>
@@ -2479,22 +2479,22 @@
         <v>135.420294132975</v>
       </c>
       <c r="D25" t="n">
-        <v>116.7889460525595</v>
+        <v>116.7889460525596</v>
       </c>
       <c r="E25" t="n">
-        <v>114.6074356809163</v>
+        <v>114.6074356809164</v>
       </c>
       <c r="F25" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G25" t="n">
-        <v>133.8643567151234</v>
+        <v>133.8643567151235</v>
       </c>
       <c r="H25" t="n">
-        <v>109.9507039711189</v>
+        <v>109.950703971119</v>
       </c>
       <c r="I25" t="n">
-        <v>54.45379794548155</v>
+        <v>54.45379794548158</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04619875863011</v>
+        <v>42.04619875863017</v>
       </c>
       <c r="S25" t="n">
-        <v>152.1056763975257</v>
+        <v>152.1056763975258</v>
       </c>
       <c r="T25" t="n">
-        <v>186.2913809307126</v>
+        <v>186.2913809307127</v>
       </c>
       <c r="U25" t="n">
-        <v>254.3670426266008</v>
+        <v>254.3670426266009</v>
       </c>
       <c r="V25" t="n">
         <v>220.3111163581752</v>
@@ -2539,10 +2539,10 @@
         <v>254.6964713709382</v>
       </c>
       <c r="X25" t="n">
-        <v>193.8831284233843</v>
+        <v>193.8831284233844</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.7581263864419</v>
+        <v>186.758126386442</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>333.4463648053547</v>
       </c>
       <c r="D26" t="n">
-        <v>322.8565146550301</v>
+        <v>312.861272739565</v>
       </c>
       <c r="E26" t="n">
         <v>350.103843106609</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.34679084109308</v>
+        <v>60.34679084109305</v>
       </c>
       <c r="T26" t="n">
-        <v>158.8277107032105</v>
+        <v>168.8229526186756</v>
       </c>
       <c r="U26" t="n">
-        <v>219.1089124416962</v>
+        <v>219.1089124416961</v>
       </c>
       <c r="V26" t="n">
         <v>295.9257315044821</v>
@@ -2716,10 +2716,10 @@
         <v>135.420294132975</v>
       </c>
       <c r="D28" t="n">
-        <v>116.7889460525596</v>
+        <v>116.7889460525595</v>
       </c>
       <c r="E28" t="n">
-        <v>114.607435680916</v>
+        <v>114.6074356809164</v>
       </c>
       <c r="F28" t="n">
         <v>113.5945210572784</v>
@@ -2728,10 +2728,10 @@
         <v>133.8643567151235</v>
       </c>
       <c r="H28" t="n">
-        <v>109.950703971119</v>
+        <v>109.9507039711189</v>
       </c>
       <c r="I28" t="n">
-        <v>54.45379794548158</v>
+        <v>54.45379794548157</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04619875863017</v>
+        <v>42.04619875863014</v>
       </c>
       <c r="S28" t="n">
         <v>152.1056763975258</v>
       </c>
       <c r="T28" t="n">
-        <v>186.2913809307127</v>
+        <v>186.2913809307126</v>
       </c>
       <c r="U28" t="n">
-        <v>254.3670426266009</v>
+        <v>254.3670426266008</v>
       </c>
       <c r="V28" t="n">
         <v>220.3111163581752</v>
@@ -2776,7 +2776,7 @@
         <v>254.6964713709382</v>
       </c>
       <c r="X28" t="n">
-        <v>193.8831284233844</v>
+        <v>193.8831284233843</v>
       </c>
       <c r="Y28" t="n">
         <v>186.758126386442</v>
@@ -2801,7 +2801,7 @@
         <v>350.103843106609</v>
       </c>
       <c r="F29" t="n">
-        <v>375.0495187760586</v>
+        <v>365.0542768605952</v>
       </c>
       <c r="G29" t="n">
         <v>378.3485417933879</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.34679084109308</v>
+        <v>60.34679084109305</v>
       </c>
       <c r="T29" t="n">
-        <v>168.8229526186757</v>
+        <v>168.8229526186756</v>
       </c>
       <c r="U29" t="n">
-        <v>209.1136705262328</v>
+        <v>219.1089124416961</v>
       </c>
       <c r="V29" t="n">
         <v>295.9257315044821</v>
@@ -2953,7 +2953,7 @@
         <v>135.420294132975</v>
       </c>
       <c r="D31" t="n">
-        <v>116.7889460525596</v>
+        <v>116.7889460525595</v>
       </c>
       <c r="E31" t="n">
         <v>114.6074356809164</v>
@@ -2965,10 +2965,10 @@
         <v>133.8643567151235</v>
       </c>
       <c r="H31" t="n">
-        <v>109.9507039711189</v>
+        <v>109.9507039711188</v>
       </c>
       <c r="I31" t="n">
-        <v>54.45379794548158</v>
+        <v>54.45379794548157</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04619875863015</v>
+        <v>42.04619875863014</v>
       </c>
       <c r="S31" t="n">
         <v>152.1056763975258</v>
       </c>
       <c r="T31" t="n">
-        <v>186.2913809307127</v>
+        <v>186.2913809307126</v>
       </c>
       <c r="U31" t="n">
-        <v>254.3670426266009</v>
+        <v>254.3670426266008</v>
       </c>
       <c r="V31" t="n">
         <v>220.3111163581752</v>
@@ -3013,7 +3013,7 @@
         <v>254.6964713709382</v>
       </c>
       <c r="X31" t="n">
-        <v>193.8831284233844</v>
+        <v>193.8831284233843</v>
       </c>
       <c r="Y31" t="n">
         <v>186.758126386442</v>
@@ -3041,10 +3041,10 @@
         <v>375.0495187760586</v>
       </c>
       <c r="G32" t="n">
-        <v>368.3532998779227</v>
+        <v>378.3485417933879</v>
       </c>
       <c r="H32" t="n">
-        <v>255.1345375017634</v>
+        <v>245.1392955862999</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.34679084109308</v>
+        <v>60.34679084109302</v>
       </c>
       <c r="T32" t="n">
         <v>168.8229526186756</v>
@@ -3190,22 +3190,22 @@
         <v>135.420294132975</v>
       </c>
       <c r="D34" t="n">
-        <v>116.7889460525596</v>
+        <v>116.7889460525595</v>
       </c>
       <c r="E34" t="n">
-        <v>114.6074356809164</v>
+        <v>114.6074356809163</v>
       </c>
       <c r="F34" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G34" t="n">
-        <v>133.8643567151235</v>
+        <v>133.8643567151234</v>
       </c>
       <c r="H34" t="n">
-        <v>109.950703971119</v>
+        <v>109.9507039711189</v>
       </c>
       <c r="I34" t="n">
-        <v>54.45379794548158</v>
+        <v>54.45379794548154</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04619875863014</v>
+        <v>42.04619875863011</v>
       </c>
       <c r="S34" t="n">
-        <v>152.1056763975258</v>
+        <v>152.1056763975257</v>
       </c>
       <c r="T34" t="n">
         <v>186.2913809307126</v>
@@ -3253,7 +3253,7 @@
         <v>193.8831284233843</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.758126386442</v>
+        <v>186.7581263864419</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.34679084109308</v>
+        <v>60.34679084109302</v>
       </c>
       <c r="T35" t="n">
         <v>168.8229526186756</v>
@@ -3427,22 +3427,22 @@
         <v>135.420294132975</v>
       </c>
       <c r="D37" t="n">
-        <v>116.7889460525596</v>
+        <v>116.7889460525595</v>
       </c>
       <c r="E37" t="n">
-        <v>114.6074356809164</v>
+        <v>114.6074356809163</v>
       </c>
       <c r="F37" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G37" t="n">
-        <v>133.8643567151235</v>
+        <v>133.8643567151234</v>
       </c>
       <c r="H37" t="n">
-        <v>109.950703971119</v>
+        <v>109.9507039711189</v>
       </c>
       <c r="I37" t="n">
-        <v>54.45379794548158</v>
+        <v>54.45379794548154</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04619875863014</v>
+        <v>42.04619875863011</v>
       </c>
       <c r="S37" t="n">
-        <v>152.1056763975258</v>
+        <v>152.1056763975257</v>
       </c>
       <c r="T37" t="n">
         <v>186.2913809307126</v>
@@ -3490,7 +3490,7 @@
         <v>193.8831284233843</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.758126386442</v>
+        <v>186.7581263864419</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>375.0495187760586</v>
       </c>
       <c r="G38" t="n">
-        <v>368.3532998779245</v>
+        <v>378.3485417933879</v>
       </c>
       <c r="H38" t="n">
-        <v>255.1345375017634</v>
+        <v>245.1392955862981</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.34679084109308</v>
+        <v>60.34679084109302</v>
       </c>
       <c r="T38" t="n">
         <v>168.8229526186756</v>
@@ -3664,22 +3664,22 @@
         <v>135.420294132975</v>
       </c>
       <c r="D40" t="n">
-        <v>116.7889460525596</v>
+        <v>116.7889460525595</v>
       </c>
       <c r="E40" t="n">
-        <v>114.6074356809164</v>
+        <v>114.6074356809163</v>
       </c>
       <c r="F40" t="n">
         <v>113.5945210572784</v>
       </c>
       <c r="G40" t="n">
-        <v>133.8643567151235</v>
+        <v>133.8643567151234</v>
       </c>
       <c r="H40" t="n">
         <v>109.9507039711189</v>
       </c>
       <c r="I40" t="n">
-        <v>54.45379794548158</v>
+        <v>54.45379794548154</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04619875863015</v>
+        <v>42.04619875863011</v>
       </c>
       <c r="S40" t="n">
-        <v>152.1056763975258</v>
+        <v>152.1056763975257</v>
       </c>
       <c r="T40" t="n">
         <v>186.2913809307126</v>
@@ -3727,7 +3727,7 @@
         <v>193.8831284233843</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.758126386442</v>
+        <v>186.7581263864419</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.1750687590408</v>
+        <v>228.778073940773</v>
       </c>
       <c r="H41" t="n">
-        <v>286.9610644674162</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>12.79143985107939</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.17331780674587</v>
       </c>
       <c r="T41" t="n">
         <v>200.6494795843284</v>
@@ -3797,10 +3797,10 @@
         <v>250.935439407349</v>
       </c>
       <c r="V41" t="n">
-        <v>313.5999255596883</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.1980998383078</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6908836807763</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>111.4159287105162</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.28032491113439</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>361.4844950661476</v>
       </c>
       <c r="G44" t="n">
-        <v>410.1750687590408</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.9610644674162</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.19161736382021</v>
+        <v>92.17331780674587</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.6494795843284</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.935439407349</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6908836807763</v>
+        <v>14.63832438438024</v>
       </c>
       <c r="H46" t="n">
         <v>141.7772309367717</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.28032491113439</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>183.9322033631786</v>
       </c>
       <c r="T46" t="n">
-        <v>126.8713739817983</v>
+        <v>218.1179078963655</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1935695922537</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G2" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I2" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="J2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.881646670177876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9.215818947438606</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>9.398310411744323</v>
+      </c>
+      <c r="P2" t="n">
         <v>13.73248268900505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18.2491464305715</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.2491464305715</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18.2491464305715</v>
       </c>
       <c r="Q2" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="V2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C3" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D3" t="n">
-        <v>9.581723550112187</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E3" t="n">
-        <v>9.581723550112187</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F3" t="n">
-        <v>9.581723550112187</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I3" t="n">
         <v>0.36498292861143</v>
@@ -4413,7 +4413,7 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L3" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M3" t="n">
         <v>9.215818947438606</v>
@@ -4431,7 +4431,7 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R3" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S3" t="n">
         <v>13.64077611982112</v>
@@ -4446,13 +4446,13 @@
         <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X3" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F4" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G4" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H4" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I4" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J4" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.69915520587216</v>
       </c>
-      <c r="L4" t="n">
-        <v>9.215818947438606</v>
-      </c>
       <c r="M4" t="n">
-        <v>9.215818947438606</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N4" t="n">
         <v>9.215818947438606</v>
@@ -4510,28 +4510,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
-        <v>18.2491464305715</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U4" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V4" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W4" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X4" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.2491464305715</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
         <v>14.44108515774386</v>
@@ -4565,13 +4565,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>11.73106307749937</v>
       </c>
       <c r="M5" t="n">
         <v>13.8896123982571</v>
@@ -4580,7 +4580,7 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4589,13 +4589,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
         <v>20.55868221764227</v>
@@ -4604,13 +4604,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4653,13 +4653,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D7" t="n">
         <v>6.667680719235332</v>
@@ -4711,7 +4711,7 @@
         <v>6.667680719235332</v>
       </c>
       <c r="F7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
         <v>0.5500836593369149</v>
@@ -4726,49 +4726,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M7" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O7" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4805,31 +4805,31 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>4.923777793205052</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>11.73106307749937</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
         <v>20.55868221764227</v>
@@ -4841,13 +4841,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
         <v>0.5500836593369149</v>
@@ -4890,13 +4890,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4914,19 +4914,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L10" t="n">
         <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N10" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5021,70 @@
         <v>1783.198125000847</v>
       </c>
       <c r="D11" t="n">
-        <v>1457.080433430109</v>
+        <v>1457.08043343011</v>
       </c>
       <c r="E11" t="n">
         <v>1103.440187867878</v>
       </c>
       <c r="F11" t="n">
-        <v>724.6022901142837</v>
+        <v>724.6022901142838</v>
       </c>
       <c r="G11" t="n">
         <v>342.4320458785384</v>
       </c>
       <c r="H11" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="I11" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="J11" t="n">
-        <v>336.3373776816188</v>
+        <v>336.3373776816193</v>
       </c>
       <c r="K11" t="n">
-        <v>764.1845327347914</v>
+        <v>764.1845327347919</v>
       </c>
       <c r="L11" t="n">
-        <v>1331.868523269586</v>
+        <v>1331.868523269587</v>
       </c>
       <c r="M11" t="n">
-        <v>1995.195781178448</v>
+        <v>1995.195781178449</v>
       </c>
       <c r="N11" t="n">
-        <v>2673.870175986406</v>
+        <v>2673.870175986407</v>
       </c>
       <c r="O11" t="n">
-        <v>3301.38790081604</v>
+        <v>3301.387900816042</v>
       </c>
       <c r="P11" t="n">
-        <v>3802.458759963509</v>
+        <v>3802.458759963511</v>
       </c>
       <c r="Q11" t="n">
-        <v>4130.569360978639</v>
+        <v>4130.56936097864</v>
       </c>
       <c r="R11" t="n">
-        <v>4236.019591817658</v>
+        <v>4236.01959181766</v>
       </c>
       <c r="S11" t="n">
-        <v>4175.063237432715</v>
+        <v>4175.063237432717</v>
       </c>
       <c r="T11" t="n">
-        <v>4004.535002464356</v>
+        <v>4004.535002464358</v>
       </c>
       <c r="U11" t="n">
-        <v>3783.212868684865</v>
+        <v>3783.212868684866</v>
       </c>
       <c r="V11" t="n">
-        <v>3484.297988377307</v>
+        <v>3484.297988377309</v>
       </c>
       <c r="W11" t="n">
-        <v>3163.677340143206</v>
+        <v>3163.677340143207</v>
       </c>
       <c r="X11" t="n">
-        <v>2822.359588918139</v>
+        <v>2822.359588918141</v>
       </c>
       <c r="Y11" t="n">
-        <v>2464.36826397834</v>
+        <v>2474.464467933355</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H12" t="n">
-        <v>89.83414822890185</v>
+        <v>89.83414822890187</v>
       </c>
       <c r="I12" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="J12" t="n">
-        <v>215.763897899882</v>
+        <v>215.7638978998821</v>
       </c>
       <c r="K12" t="n">
-        <v>517.8929467899306</v>
+        <v>517.8929467899309</v>
       </c>
       <c r="L12" t="n">
-        <v>970.4652792181887</v>
+        <v>970.465279218189</v>
       </c>
       <c r="M12" t="n">
-        <v>1517.952712876375</v>
+        <v>1360.823804538855</v>
       </c>
       <c r="N12" t="n">
-        <v>2050.713440413186</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="O12" t="n">
-        <v>2555.774633269369</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="P12" t="n">
-        <v>2555.774633269369</v>
+        <v>2323.233314387132</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.774633269369</v>
+        <v>2531.360316034383</v>
       </c>
       <c r="R12" t="n">
         <v>2555.774633269369</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>871.2659024984271</v>
+        <v>871.265902498428</v>
       </c>
       <c r="C13" t="n">
-        <v>734.4777266065331</v>
+        <v>734.477726606534</v>
       </c>
       <c r="D13" t="n">
-        <v>616.5090942302104</v>
+        <v>616.5090942302113</v>
       </c>
       <c r="E13" t="n">
-        <v>500.7440076838303</v>
+        <v>500.7440076838311</v>
       </c>
       <c r="F13" t="n">
-        <v>386.0020672219329</v>
+        <v>386.0020672219337</v>
       </c>
       <c r="G13" t="n">
-        <v>250.7855452874647</v>
+        <v>250.7855452874648</v>
       </c>
       <c r="H13" t="n">
         <v>139.7242281449204</v>
       </c>
       <c r="I13" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="J13" t="n">
         <v>184.7936619848729</v>
       </c>
       <c r="K13" t="n">
-        <v>458.8121316202834</v>
+        <v>458.8121316202835</v>
       </c>
       <c r="L13" t="n">
-        <v>856.1764007393655</v>
+        <v>856.1764007393656</v>
       </c>
       <c r="M13" t="n">
         <v>1283.817648560094</v>
@@ -5212,10 +5212,10 @@
         <v>1707.474355793389</v>
       </c>
       <c r="O13" t="n">
-        <v>2085.178882493748</v>
+        <v>2085.178882493749</v>
       </c>
       <c r="P13" t="n">
-        <v>2389.397173924978</v>
+        <v>2389.397173924979</v>
       </c>
       <c r="Q13" t="n">
         <v>2526.280644385997</v>
@@ -5227,22 +5227,22 @@
         <v>2330.167639177759</v>
       </c>
       <c r="T13" t="n">
-        <v>2141.994527126533</v>
+        <v>2141.994527126534</v>
       </c>
       <c r="U13" t="n">
-        <v>1885.058120432997</v>
+        <v>1885.058120432998</v>
       </c>
       <c r="V13" t="n">
-        <v>1662.521639263123</v>
+        <v>1662.521639263124</v>
       </c>
       <c r="W13" t="n">
-        <v>1405.252476262175</v>
+        <v>1405.252476262176</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.410932400171</v>
+        <v>1209.410932400172</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.766360292654</v>
+        <v>1020.766360292655</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2120.012634905246</v>
+        <v>2109.916430950233</v>
       </c>
       <c r="C14" t="n">
-        <v>1783.198125000847</v>
+        <v>1773.101921045834</v>
       </c>
       <c r="D14" t="n">
-        <v>1457.080433430109</v>
+        <v>1446.984229475097</v>
       </c>
       <c r="E14" t="n">
-        <v>1103.440187867878</v>
+        <v>1093.343983912866</v>
       </c>
       <c r="F14" t="n">
-        <v>724.6022901142837</v>
+        <v>714.5060861592711</v>
       </c>
       <c r="G14" t="n">
-        <v>342.4320458785384</v>
+        <v>332.3358419235257</v>
       </c>
       <c r="H14" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="I14" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="J14" t="n">
-        <v>336.337377681619</v>
+        <v>336.3373776816197</v>
       </c>
       <c r="K14" t="n">
-        <v>764.1845327347917</v>
+        <v>764.1845327347924</v>
       </c>
       <c r="L14" t="n">
-        <v>1331.868523269585</v>
+        <v>1331.868523269588</v>
       </c>
       <c r="M14" t="n">
-        <v>1995.195781178448</v>
+        <v>1995.19578117845</v>
       </c>
       <c r="N14" t="n">
-        <v>2673.870175986406</v>
+        <v>2673.870175986408</v>
       </c>
       <c r="O14" t="n">
-        <v>3301.38790081604</v>
+        <v>3301.387900816042</v>
       </c>
       <c r="P14" t="n">
-        <v>3802.458759963509</v>
+        <v>3802.458759963511</v>
       </c>
       <c r="Q14" t="n">
-        <v>4130.569360978639</v>
+        <v>4130.56936097864</v>
       </c>
       <c r="R14" t="n">
-        <v>4236.019591817658</v>
+        <v>4236.01959181766</v>
       </c>
       <c r="S14" t="n">
-        <v>4175.063237432715</v>
+        <v>4175.063237432717</v>
       </c>
       <c r="T14" t="n">
-        <v>4014.63120641937</v>
+        <v>4004.535002464358</v>
       </c>
       <c r="U14" t="n">
-        <v>3793.309072639879</v>
+        <v>3783.212868684866</v>
       </c>
       <c r="V14" t="n">
-        <v>3494.394192332321</v>
+        <v>3484.297988377309</v>
       </c>
       <c r="W14" t="n">
-        <v>3173.77354409822</v>
+        <v>3163.677340143207</v>
       </c>
       <c r="X14" t="n">
-        <v>2832.455792873153</v>
+        <v>2822.359588918141</v>
       </c>
       <c r="Y14" t="n">
-        <v>2474.464467933355</v>
+        <v>2464.368263978342</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H15" t="n">
-        <v>89.83414822890184</v>
+        <v>89.83414822890187</v>
       </c>
       <c r="I15" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="J15" t="n">
-        <v>215.763897899882</v>
+        <v>215.7638978998821</v>
       </c>
       <c r="K15" t="n">
-        <v>517.8929467899309</v>
+        <v>215.7638978998821</v>
       </c>
       <c r="L15" t="n">
-        <v>970.465279218189</v>
+        <v>540.8164969067217</v>
       </c>
       <c r="M15" t="n">
-        <v>1517.952712876376</v>
+        <v>1088.303930564909</v>
       </c>
       <c r="N15" t="n">
-        <v>2094.339154719539</v>
+        <v>1664.690372408072</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.774633269369</v>
+        <v>2169.751565264256</v>
       </c>
       <c r="P15" t="n">
         <v>2555.774633269369</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>871.2659024984271</v>
+        <v>871.2659024984265</v>
       </c>
       <c r="C16" t="n">
-        <v>734.4777266065331</v>
+        <v>734.4777266065325</v>
       </c>
       <c r="D16" t="n">
-        <v>616.5090942302104</v>
+        <v>616.5090942302098</v>
       </c>
       <c r="E16" t="n">
-        <v>500.7440076838303</v>
+        <v>500.7440076838297</v>
       </c>
       <c r="F16" t="n">
-        <v>386.0020672219329</v>
+        <v>386.0020672219323</v>
       </c>
       <c r="G16" t="n">
-        <v>250.7855452874647</v>
+        <v>250.7855452874648</v>
       </c>
       <c r="H16" t="n">
         <v>139.7242281449204</v>
       </c>
       <c r="I16" t="n">
-        <v>84.72039183635316</v>
+        <v>84.72039183635319</v>
       </c>
       <c r="J16" t="n">
         <v>184.7936619848729</v>
       </c>
       <c r="K16" t="n">
-        <v>458.8121316202834</v>
+        <v>458.812131620283</v>
       </c>
       <c r="L16" t="n">
-        <v>856.1764007393656</v>
+        <v>856.1764007393651</v>
       </c>
       <c r="M16" t="n">
         <v>1283.817648560094</v>
@@ -5449,10 +5449,10 @@
         <v>1707.474355793389</v>
       </c>
       <c r="O16" t="n">
-        <v>2085.178882493749</v>
+        <v>2085.178882493748</v>
       </c>
       <c r="P16" t="n">
-        <v>2389.397173924979</v>
+        <v>2389.397173924978</v>
       </c>
       <c r="Q16" t="n">
         <v>2526.280644385997</v>
@@ -5461,10 +5461,10 @@
         <v>2483.809736548997</v>
       </c>
       <c r="S16" t="n">
-        <v>2330.167639177759</v>
+        <v>2330.167639177758</v>
       </c>
       <c r="T16" t="n">
-        <v>2141.994527126534</v>
+        <v>2141.994527126533</v>
       </c>
       <c r="U16" t="n">
         <v>1885.058120432997</v>
@@ -5479,7 +5479,7 @@
         <v>1209.410932400171</v>
       </c>
       <c r="Y16" t="n">
-        <v>1020.766360292654</v>
+        <v>1020.766360292653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2109.91643095023</v>
+        <v>2109.916430950232</v>
       </c>
       <c r="C17" t="n">
-        <v>1773.101921045832</v>
+        <v>1783.198125000847</v>
       </c>
       <c r="D17" t="n">
-        <v>1446.984229475094</v>
+        <v>1457.080433430109</v>
       </c>
       <c r="E17" t="n">
-        <v>1093.343983912863</v>
+        <v>1103.440187867878</v>
       </c>
       <c r="F17" t="n">
-        <v>714.5060861592684</v>
+        <v>724.6022901142837</v>
       </c>
       <c r="G17" t="n">
         <v>342.4320458785384</v>
       </c>
       <c r="H17" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="I17" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J17" t="n">
-        <v>336.3373776816188</v>
+        <v>336.337377681619</v>
       </c>
       <c r="K17" t="n">
-        <v>764.1845327347914</v>
+        <v>764.1845327347917</v>
       </c>
       <c r="L17" t="n">
         <v>1331.868523269587</v>
@@ -5525,40 +5525,40 @@
         <v>1995.195781178449</v>
       </c>
       <c r="N17" t="n">
-        <v>2673.870175986406</v>
+        <v>2673.870175986407</v>
       </c>
       <c r="O17" t="n">
-        <v>3301.38790081604</v>
+        <v>3301.387900816041</v>
       </c>
       <c r="P17" t="n">
-        <v>3802.458759963508</v>
+        <v>3802.45875996351</v>
       </c>
       <c r="Q17" t="n">
-        <v>4130.569360978638</v>
+        <v>4130.569360978639</v>
       </c>
       <c r="R17" t="n">
-        <v>4236.019591817657</v>
+        <v>4236.019591817659</v>
       </c>
       <c r="S17" t="n">
-        <v>4175.063237432714</v>
+        <v>4175.063237432716</v>
       </c>
       <c r="T17" t="n">
-        <v>4004.535002464355</v>
+        <v>4004.535002464357</v>
       </c>
       <c r="U17" t="n">
-        <v>3783.212868684864</v>
+        <v>3783.212868684865</v>
       </c>
       <c r="V17" t="n">
-        <v>3484.297988377306</v>
+        <v>3484.297988377308</v>
       </c>
       <c r="W17" t="n">
-        <v>3163.677340143205</v>
+        <v>3163.677340143206</v>
       </c>
       <c r="X17" t="n">
-        <v>2822.359588918138</v>
+        <v>2822.35958891814</v>
       </c>
       <c r="Y17" t="n">
-        <v>2464.368263978339</v>
+        <v>2464.368263978341</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H18" t="n">
-        <v>89.83414822890187</v>
+        <v>89.83414822890185</v>
       </c>
       <c r="I18" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J18" t="n">
-        <v>84.72039183635314</v>
+        <v>215.763897899882</v>
       </c>
       <c r="K18" t="n">
-        <v>84.72039183635314</v>
+        <v>403.1902792544138</v>
       </c>
       <c r="L18" t="n">
-        <v>537.292724264611</v>
+        <v>855.7626116826719</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.780157922798</v>
+        <v>855.7626116826719</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.166599765961</v>
+        <v>1432.149053525835</v>
       </c>
       <c r="O18" t="n">
-        <v>2166.227792622144</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.250860627258</v>
+        <v>2323.233314387132</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.774633269369</v>
+        <v>2531.360316034383</v>
       </c>
       <c r="R18" t="n">
         <v>2555.774633269369</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.2659024984271</v>
+        <v>871.2659024984274</v>
       </c>
       <c r="C19" t="n">
-        <v>734.4777266065331</v>
+        <v>734.4777266065335</v>
       </c>
       <c r="D19" t="n">
-        <v>616.5090942302104</v>
+        <v>616.5090942302106</v>
       </c>
       <c r="E19" t="n">
-        <v>500.7440076838303</v>
+        <v>500.7440076838304</v>
       </c>
       <c r="F19" t="n">
-        <v>386.0020672219329</v>
+        <v>386.002067221933</v>
       </c>
       <c r="G19" t="n">
-        <v>250.7855452874647</v>
+        <v>250.7855452874648</v>
       </c>
       <c r="H19" t="n">
         <v>139.7242281449204</v>
       </c>
       <c r="I19" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J19" t="n">
-        <v>184.7936619848728</v>
+        <v>184.7936619848729</v>
       </c>
       <c r="K19" t="n">
         <v>458.8121316202833</v>
@@ -5683,13 +5683,13 @@
         <v>1283.817648560094</v>
       </c>
       <c r="N19" t="n">
-        <v>1707.474355793388</v>
+        <v>1707.474355793389</v>
       </c>
       <c r="O19" t="n">
         <v>2085.178882493748</v>
       </c>
       <c r="P19" t="n">
-        <v>2389.397173924977</v>
+        <v>2389.397173924978</v>
       </c>
       <c r="Q19" t="n">
         <v>2526.280644385996</v>
@@ -5698,22 +5698,22 @@
         <v>2483.809736548996</v>
       </c>
       <c r="S19" t="n">
-        <v>2330.167639177758</v>
+        <v>2330.167639177759</v>
       </c>
       <c r="T19" t="n">
-        <v>2141.994527126533</v>
+        <v>2141.994527126534</v>
       </c>
       <c r="U19" t="n">
-        <v>1885.058120432997</v>
+        <v>1885.058120432998</v>
       </c>
       <c r="V19" t="n">
-        <v>1662.521639263123</v>
+        <v>1662.521639263124</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.252476262175</v>
+        <v>1405.252476262176</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.410932400171</v>
+        <v>1209.410932400172</v>
       </c>
       <c r="Y19" t="n">
         <v>1020.766360292654</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2109.91643095023</v>
+        <v>2109.916430950232</v>
       </c>
       <c r="C20" t="n">
-        <v>1773.101921045832</v>
+        <v>1773.101921045833</v>
       </c>
       <c r="D20" t="n">
-        <v>1446.984229475094</v>
+        <v>1446.984229475096</v>
       </c>
       <c r="E20" t="n">
-        <v>1093.343983912863</v>
+        <v>1093.343983912865</v>
       </c>
       <c r="F20" t="n">
-        <v>714.5060861592684</v>
+        <v>714.5060861592702</v>
       </c>
       <c r="G20" t="n">
         <v>342.4320458785384</v>
       </c>
       <c r="H20" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="I20" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J20" t="n">
-        <v>336.3373776816189</v>
+        <v>336.3373776816197</v>
       </c>
       <c r="K20" t="n">
-        <v>764.1845327347914</v>
+        <v>764.1845327347924</v>
       </c>
       <c r="L20" t="n">
-        <v>1331.868523269587</v>
+        <v>1331.868523269588</v>
       </c>
       <c r="M20" t="n">
         <v>1995.195781178449</v>
@@ -5768,34 +5768,34 @@
         <v>3301.38790081604</v>
       </c>
       <c r="P20" t="n">
-        <v>3802.458759963508</v>
+        <v>3802.45875996351</v>
       </c>
       <c r="Q20" t="n">
-        <v>4130.569360978638</v>
+        <v>4130.569360978639</v>
       </c>
       <c r="R20" t="n">
-        <v>4236.019591817657</v>
+        <v>4236.019591817659</v>
       </c>
       <c r="S20" t="n">
-        <v>4175.063237432714</v>
+        <v>4175.063237432716</v>
       </c>
       <c r="T20" t="n">
-        <v>4004.535002464355</v>
+        <v>4004.535002464357</v>
       </c>
       <c r="U20" t="n">
-        <v>3783.212868684864</v>
+        <v>3783.212868684865</v>
       </c>
       <c r="V20" t="n">
-        <v>3484.297988377306</v>
+        <v>3484.297988377308</v>
       </c>
       <c r="W20" t="n">
-        <v>3163.677340143205</v>
+        <v>3163.677340143206</v>
       </c>
       <c r="X20" t="n">
-        <v>2822.359588918138</v>
+        <v>2822.35958891814</v>
       </c>
       <c r="Y20" t="n">
-        <v>2464.368263978339</v>
+        <v>2464.368263978341</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H21" t="n">
-        <v>89.83414822890184</v>
+        <v>89.83414822890187</v>
       </c>
       <c r="I21" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J21" t="n">
         <v>215.763897899882</v>
@@ -5838,13 +5838,13 @@
         <v>668.33623032814</v>
       </c>
       <c r="M21" t="n">
-        <v>1215.823663986327</v>
+        <v>855.7626116826721</v>
       </c>
       <c r="N21" t="n">
-        <v>1792.21010582949</v>
+        <v>1432.149053525835</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.271298685673</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="P21" t="n">
         <v>2323.233314387132</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.2659024984274</v>
+        <v>871.2659024984275</v>
       </c>
       <c r="C22" t="n">
-        <v>734.4777266065335</v>
+        <v>734.4777266065336</v>
       </c>
       <c r="D22" t="n">
         <v>616.5090942302107</v>
       </c>
       <c r="E22" t="n">
-        <v>500.7440076838306</v>
+        <v>500.7440076838305</v>
       </c>
       <c r="F22" t="n">
-        <v>386.0020672219332</v>
+        <v>386.0020672219331</v>
       </c>
       <c r="G22" t="n">
-        <v>250.7855452874647</v>
+        <v>250.7855452874649</v>
       </c>
       <c r="H22" t="n">
         <v>139.7242281449204</v>
       </c>
       <c r="I22" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J22" t="n">
-        <v>184.7936619848728</v>
+        <v>184.7936619848736</v>
       </c>
       <c r="K22" t="n">
-        <v>458.8121316202833</v>
+        <v>458.812131620284</v>
       </c>
       <c r="L22" t="n">
-        <v>856.1764007393654</v>
+        <v>856.176400739366</v>
       </c>
       <c r="M22" t="n">
         <v>1283.817648560095</v>
       </c>
       <c r="N22" t="n">
-        <v>1707.474355793389</v>
+        <v>1707.47435579339</v>
       </c>
       <c r="O22" t="n">
         <v>2085.178882493749</v>
       </c>
       <c r="P22" t="n">
-        <v>2389.397173924978</v>
+        <v>2389.397173924979</v>
       </c>
       <c r="Q22" t="n">
         <v>2526.280644385997</v>
@@ -5941,10 +5941,10 @@
         <v>2141.994527126534</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.058120432997</v>
+        <v>1885.058120432998</v>
       </c>
       <c r="V22" t="n">
-        <v>1662.521639263123</v>
+        <v>1662.521639263124</v>
       </c>
       <c r="W22" t="n">
         <v>1405.252476262176</v>
@@ -5972,13 +5972,13 @@
         <v>1446.984229475096</v>
       </c>
       <c r="E23" t="n">
-        <v>1093.343983912865</v>
+        <v>1103.440187867878</v>
       </c>
       <c r="F23" t="n">
-        <v>714.5060861592702</v>
+        <v>724.6022901142837</v>
       </c>
       <c r="G23" t="n">
-        <v>332.3358419235248</v>
+        <v>342.4320458785384</v>
       </c>
       <c r="H23" t="n">
         <v>84.72039183635317</v>
@@ -6075,16 +6075,16 @@
         <v>839.4217731546599</v>
       </c>
       <c r="M24" t="n">
-        <v>1386.909206812847</v>
+        <v>1266.199996922772</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.29564865601</v>
+        <v>1842.586438765935</v>
       </c>
       <c r="O24" t="n">
-        <v>2468.356841512193</v>
+        <v>2347.647631622119</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.774633269369</v>
+        <v>2347.647631622119</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.774633269369</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>871.2659024984271</v>
+        <v>871.2659024984275</v>
       </c>
       <c r="C25" t="n">
-        <v>734.4777266065331</v>
+        <v>734.4777266065336</v>
       </c>
       <c r="D25" t="n">
-        <v>616.5090942302104</v>
+        <v>616.5090942302107</v>
       </c>
       <c r="E25" t="n">
-        <v>500.7440076838303</v>
+        <v>500.7440076838305</v>
       </c>
       <c r="F25" t="n">
-        <v>386.0020672219329</v>
+        <v>386.0020672219331</v>
       </c>
       <c r="G25" t="n">
-        <v>250.7855452874647</v>
+        <v>250.7855452874649</v>
       </c>
       <c r="H25" t="n">
         <v>139.7242281449204</v>
@@ -6145,49 +6145,49 @@
         <v>84.72039183635317</v>
       </c>
       <c r="J25" t="n">
-        <v>184.7936619848729</v>
+        <v>184.7936619848736</v>
       </c>
       <c r="K25" t="n">
-        <v>458.8121316202834</v>
+        <v>458.812131620284</v>
       </c>
       <c r="L25" t="n">
-        <v>856.1764007393655</v>
+        <v>856.176400739366</v>
       </c>
       <c r="M25" t="n">
-        <v>1283.817648560094</v>
+        <v>1283.817648560095</v>
       </c>
       <c r="N25" t="n">
-        <v>1707.474355793389</v>
+        <v>1707.47435579339</v>
       </c>
       <c r="O25" t="n">
-        <v>2085.178882493748</v>
+        <v>2085.178882493749</v>
       </c>
       <c r="P25" t="n">
-        <v>2389.397173924978</v>
+        <v>2389.397173924979</v>
       </c>
       <c r="Q25" t="n">
-        <v>2526.280644385996</v>
+        <v>2526.280644385997</v>
       </c>
       <c r="R25" t="n">
-        <v>2483.809736548996</v>
+        <v>2483.809736548997</v>
       </c>
       <c r="S25" t="n">
-        <v>2330.167639177758</v>
+        <v>2330.167639177759</v>
       </c>
       <c r="T25" t="n">
-        <v>2141.994527126533</v>
+        <v>2141.994527126534</v>
       </c>
       <c r="U25" t="n">
-        <v>1885.058120432997</v>
+        <v>1885.058120432998</v>
       </c>
       <c r="V25" t="n">
-        <v>1662.521639263123</v>
+        <v>1662.521639263124</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.252476262175</v>
+        <v>1405.252476262176</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.410932400171</v>
+        <v>1209.410932400172</v>
       </c>
       <c r="Y25" t="n">
         <v>1020.766360292654</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2120.012634905246</v>
+        <v>2109.91643095023</v>
       </c>
       <c r="C26" t="n">
-        <v>1783.198125000847</v>
+        <v>1773.101921045832</v>
       </c>
       <c r="D26" t="n">
         <v>1457.080433430109</v>
@@ -6230,13 +6230,13 @@
         <v>764.1845327347914</v>
       </c>
       <c r="L26" t="n">
-        <v>1331.868523269586</v>
+        <v>1331.868523269585</v>
       </c>
       <c r="M26" t="n">
-        <v>1995.195781178448</v>
+        <v>1995.195781178447</v>
       </c>
       <c r="N26" t="n">
-        <v>2673.870175986406</v>
+        <v>2673.870175986405</v>
       </c>
       <c r="O26" t="n">
         <v>3301.387900816039</v>
@@ -6254,22 +6254,22 @@
         <v>4175.063237432714</v>
       </c>
       <c r="T26" t="n">
-        <v>4014.63120641937</v>
+        <v>4004.535002464355</v>
       </c>
       <c r="U26" t="n">
-        <v>3793.309072639879</v>
+        <v>3783.212868684864</v>
       </c>
       <c r="V26" t="n">
-        <v>3494.394192332321</v>
+        <v>3484.297988377306</v>
       </c>
       <c r="W26" t="n">
-        <v>3173.77354409822</v>
+        <v>3163.677340143205</v>
       </c>
       <c r="X26" t="n">
-        <v>2832.455792873153</v>
+        <v>2822.359588918138</v>
       </c>
       <c r="Y26" t="n">
-        <v>2474.464467933355</v>
+        <v>2464.368263978339</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>84.72039183635314</v>
       </c>
       <c r="J27" t="n">
-        <v>84.72039183635314</v>
+        <v>215.763897899882</v>
       </c>
       <c r="K27" t="n">
-        <v>84.72039183635314</v>
+        <v>517.8929467899306</v>
       </c>
       <c r="L27" t="n">
-        <v>308.2751780244854</v>
+        <v>970.4652792181887</v>
       </c>
       <c r="M27" t="n">
-        <v>855.7626116826721</v>
+        <v>970.4652792181887</v>
       </c>
       <c r="N27" t="n">
         <v>1432.149053525835</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>871.2659024984271</v>
+        <v>871.2659024984272</v>
       </c>
       <c r="C28" t="n">
-        <v>734.4777266065331</v>
+        <v>734.4777266065332</v>
       </c>
       <c r="D28" t="n">
-        <v>616.5090942302103</v>
+        <v>616.5090942302104</v>
       </c>
       <c r="E28" t="n">
-        <v>500.7440076838304</v>
+        <v>500.7440076838303</v>
       </c>
       <c r="F28" t="n">
-        <v>386.002067221933</v>
+        <v>386.0020672219329</v>
       </c>
       <c r="G28" t="n">
-        <v>250.7855452874648</v>
+        <v>250.7855452874645</v>
       </c>
       <c r="H28" t="n">
-        <v>139.7242281449204</v>
+        <v>139.7242281449201</v>
       </c>
       <c r="I28" t="n">
         <v>84.72039183635314</v>
       </c>
       <c r="J28" t="n">
-        <v>184.7936619848728</v>
+        <v>184.793661984873</v>
       </c>
       <c r="K28" t="n">
-        <v>458.8121316202833</v>
+        <v>458.8121316202835</v>
       </c>
       <c r="L28" t="n">
-        <v>856.1764007393654</v>
+        <v>856.1764007393656</v>
       </c>
       <c r="M28" t="n">
         <v>1283.817648560094</v>
@@ -6421,7 +6421,7 @@
         <v>1662.521639263123</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.252476262175</v>
+        <v>1405.252476262176</v>
       </c>
       <c r="X28" t="n">
         <v>1209.410932400171</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2120.012634905246</v>
+        <v>2109.916430950232</v>
       </c>
       <c r="C29" t="n">
-        <v>1783.198125000847</v>
+        <v>1773.101921045833</v>
       </c>
       <c r="D29" t="n">
-        <v>1457.080433430109</v>
+        <v>1446.984229475096</v>
       </c>
       <c r="E29" t="n">
-        <v>1103.440187867878</v>
+        <v>1093.343983912865</v>
       </c>
       <c r="F29" t="n">
         <v>724.6022901142837</v>
@@ -6476,7 +6476,7 @@
         <v>2673.870175986407</v>
       </c>
       <c r="O29" t="n">
-        <v>3301.387900816041</v>
+        <v>3301.38790081604</v>
       </c>
       <c r="P29" t="n">
         <v>3802.45875996351</v>
@@ -6494,19 +6494,19 @@
         <v>4004.535002464357</v>
       </c>
       <c r="U29" t="n">
-        <v>3793.309072639879</v>
+        <v>3783.212868684865</v>
       </c>
       <c r="V29" t="n">
-        <v>3494.394192332321</v>
+        <v>3484.297988377308</v>
       </c>
       <c r="W29" t="n">
-        <v>3173.77354409822</v>
+        <v>3163.677340143206</v>
       </c>
       <c r="X29" t="n">
-        <v>2832.455792873153</v>
+        <v>2822.35958891814</v>
       </c>
       <c r="Y29" t="n">
-        <v>2474.464467933355</v>
+        <v>2464.368263978341</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>84.72039183635317</v>
       </c>
       <c r="J30" t="n">
-        <v>84.72039183635317</v>
+        <v>215.763897899882</v>
       </c>
       <c r="K30" t="n">
-        <v>84.72039183635317</v>
+        <v>517.8929467899308</v>
       </c>
       <c r="L30" t="n">
-        <v>308.2751780244854</v>
+        <v>970.4652792181888</v>
       </c>
       <c r="M30" t="n">
-        <v>855.7626116826721</v>
+        <v>970.4652792181888</v>
       </c>
       <c r="N30" t="n">
-        <v>1432.149053525835</v>
+        <v>1546.851721061352</v>
       </c>
       <c r="O30" t="n">
         <v>1937.210246382019</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>871.2659024984265</v>
+        <v>871.2659024984271</v>
       </c>
       <c r="C31" t="n">
-        <v>734.4777266065325</v>
+        <v>734.4777266065331</v>
       </c>
       <c r="D31" t="n">
-        <v>616.5090942302097</v>
+        <v>616.5090942302104</v>
       </c>
       <c r="E31" t="n">
-        <v>500.7440076838295</v>
+        <v>500.7440076838302</v>
       </c>
       <c r="F31" t="n">
-        <v>386.0020672219321</v>
+        <v>386.0020672219328</v>
       </c>
       <c r="G31" t="n">
-        <v>250.7855452874648</v>
+        <v>250.7855452874646</v>
       </c>
       <c r="H31" t="n">
         <v>139.7242281449204</v>
@@ -6619,13 +6619,13 @@
         <v>84.72039183635317</v>
       </c>
       <c r="J31" t="n">
-        <v>184.7936619848726</v>
+        <v>184.7936619848729</v>
       </c>
       <c r="K31" t="n">
-        <v>458.812131620283</v>
+        <v>458.8121316202834</v>
       </c>
       <c r="L31" t="n">
-        <v>856.1764007393651</v>
+        <v>856.1764007393655</v>
       </c>
       <c r="M31" t="n">
         <v>1283.817648560094</v>
@@ -6640,10 +6640,10 @@
         <v>2389.397173924978</v>
       </c>
       <c r="Q31" t="n">
-        <v>2526.280644385996</v>
+        <v>2526.280644385997</v>
       </c>
       <c r="R31" t="n">
-        <v>2483.809736548996</v>
+        <v>2483.809736548997</v>
       </c>
       <c r="S31" t="n">
         <v>2330.167639177758</v>
@@ -6652,7 +6652,7 @@
         <v>2141.994527126533</v>
       </c>
       <c r="U31" t="n">
-        <v>1885.058120432996</v>
+        <v>1885.058120432997</v>
       </c>
       <c r="V31" t="n">
         <v>1662.521639263123</v>
@@ -6664,7 +6664,7 @@
         <v>1209.410932400171</v>
       </c>
       <c r="Y31" t="n">
-        <v>1020.766360292653</v>
+        <v>1020.766360292654</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2109.91643095023</v>
+        <v>2109.916430950232</v>
       </c>
       <c r="C32" t="n">
-        <v>1773.101921045832</v>
+        <v>1773.101921045833</v>
       </c>
       <c r="D32" t="n">
-        <v>1446.984229475094</v>
+        <v>1446.984229475096</v>
       </c>
       <c r="E32" t="n">
-        <v>1093.343983912863</v>
+        <v>1093.343983912865</v>
       </c>
       <c r="F32" t="n">
-        <v>714.5060861592684</v>
+        <v>714.5060861592702</v>
       </c>
       <c r="G32" t="n">
-        <v>342.4320458785384</v>
+        <v>332.3358419235248</v>
       </c>
       <c r="H32" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="I32" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J32" t="n">
-        <v>336.3373776816189</v>
+        <v>336.3373776816197</v>
       </c>
       <c r="K32" t="n">
-        <v>764.1845327347914</v>
+        <v>764.1845327347924</v>
       </c>
       <c r="L32" t="n">
-        <v>1331.868523269586</v>
+        <v>1331.868523269587</v>
       </c>
       <c r="M32" t="n">
-        <v>1995.195781178448</v>
+        <v>1995.195781178449</v>
       </c>
       <c r="N32" t="n">
-        <v>2673.870175986406</v>
+        <v>2673.870175986407</v>
       </c>
       <c r="O32" t="n">
-        <v>3301.38790081604</v>
+        <v>3301.387900816041</v>
       </c>
       <c r="P32" t="n">
-        <v>3802.458759963508</v>
+        <v>3802.45875996351</v>
       </c>
       <c r="Q32" t="n">
-        <v>4130.569360978638</v>
+        <v>4130.569360978639</v>
       </c>
       <c r="R32" t="n">
-        <v>4236.019591817657</v>
+        <v>4236.019591817659</v>
       </c>
       <c r="S32" t="n">
-        <v>4175.063237432714</v>
+        <v>4175.063237432716</v>
       </c>
       <c r="T32" t="n">
-        <v>4004.535002464355</v>
+        <v>4004.535002464357</v>
       </c>
       <c r="U32" t="n">
-        <v>3783.212868684864</v>
+        <v>3783.212868684865</v>
       </c>
       <c r="V32" t="n">
-        <v>3484.297988377306</v>
+        <v>3484.297988377308</v>
       </c>
       <c r="W32" t="n">
-        <v>3163.677340143205</v>
+        <v>3163.677340143206</v>
       </c>
       <c r="X32" t="n">
-        <v>2822.359588918138</v>
+        <v>2822.35958891814</v>
       </c>
       <c r="Y32" t="n">
-        <v>2464.368263978339</v>
+        <v>2464.368263978341</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H33" t="n">
-        <v>89.83414822890184</v>
+        <v>89.83414822890187</v>
       </c>
       <c r="I33" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J33" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="K33" t="n">
-        <v>84.72039183635314</v>
+        <v>386.8494407264019</v>
       </c>
       <c r="L33" t="n">
-        <v>308.2751780244854</v>
+        <v>839.4217731546599</v>
       </c>
       <c r="M33" t="n">
-        <v>855.7626116826721</v>
+        <v>1386.909206812847</v>
       </c>
       <c r="N33" t="n">
-        <v>1432.149053525835</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="O33" t="n">
         <v>1937.210246382019</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>871.2659024984274</v>
+        <v>871.2659024984271</v>
       </c>
       <c r="C34" t="n">
-        <v>734.4777266065335</v>
+        <v>734.4777266065331</v>
       </c>
       <c r="D34" t="n">
-        <v>616.5090942302106</v>
+        <v>616.5090942302104</v>
       </c>
       <c r="E34" t="n">
-        <v>500.7440076838304</v>
+        <v>500.7440076838303</v>
       </c>
       <c r="F34" t="n">
-        <v>386.002067221933</v>
+        <v>386.0020672219329</v>
       </c>
       <c r="G34" t="n">
-        <v>250.7855452874648</v>
+        <v>250.7855452874647</v>
       </c>
       <c r="H34" t="n">
         <v>139.7242281449204</v>
       </c>
       <c r="I34" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635317</v>
       </c>
       <c r="J34" t="n">
-        <v>184.7936619848728</v>
+        <v>184.7936619848729</v>
       </c>
       <c r="K34" t="n">
-        <v>458.8121316202833</v>
+        <v>458.8121316202821</v>
       </c>
       <c r="L34" t="n">
-        <v>856.1764007393654</v>
+        <v>856.1764007393642</v>
       </c>
       <c r="M34" t="n">
-        <v>1283.817648560094</v>
+        <v>1283.817648560093</v>
       </c>
       <c r="N34" t="n">
-        <v>1707.474355793389</v>
+        <v>1707.474355793388</v>
       </c>
       <c r="O34" t="n">
         <v>2085.178882493748</v>
       </c>
       <c r="P34" t="n">
-        <v>2389.397173924978</v>
+        <v>2389.397173924977</v>
       </c>
       <c r="Q34" t="n">
-        <v>2526.280644385997</v>
+        <v>2526.280644385996</v>
       </c>
       <c r="R34" t="n">
-        <v>2483.809736548997</v>
+        <v>2483.809736548996</v>
       </c>
       <c r="S34" t="n">
         <v>2330.167639177758</v>
@@ -6895,7 +6895,7 @@
         <v>1662.521639263123</v>
       </c>
       <c r="W34" t="n">
-        <v>1405.252476262176</v>
+        <v>1405.252476262175</v>
       </c>
       <c r="X34" t="n">
         <v>1209.410932400171</v>
@@ -7014,28 +7014,28 @@
         <v>84.72039183635314</v>
       </c>
       <c r="J36" t="n">
-        <v>215.763897899882</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="K36" t="n">
-        <v>517.8929467899306</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="L36" t="n">
-        <v>970.4652792181887</v>
+        <v>537.2927242646113</v>
       </c>
       <c r="M36" t="n">
-        <v>1517.952712876375</v>
+        <v>1084.780157922798</v>
       </c>
       <c r="N36" t="n">
-        <v>2094.339154719539</v>
+        <v>1661.166599765961</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.774633269369</v>
+        <v>2166.227792622145</v>
       </c>
       <c r="P36" t="n">
-        <v>2555.774633269369</v>
+        <v>2323.233314387132</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.774633269369</v>
+        <v>2531.360316034383</v>
       </c>
       <c r="R36" t="n">
         <v>2555.774633269369</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>871.2659024984274</v>
+        <v>871.2659024984271</v>
       </c>
       <c r="C37" t="n">
-        <v>734.4777266065335</v>
+        <v>734.4777266065331</v>
       </c>
       <c r="D37" t="n">
-        <v>616.5090942302106</v>
+        <v>616.5090942302104</v>
       </c>
       <c r="E37" t="n">
-        <v>500.7440076838304</v>
+        <v>500.7440076838303</v>
       </c>
       <c r="F37" t="n">
-        <v>386.002067221933</v>
+        <v>386.0020672219329</v>
       </c>
       <c r="G37" t="n">
-        <v>250.7855452874648</v>
+        <v>250.7855452874647</v>
       </c>
       <c r="H37" t="n">
-        <v>139.7242281449204</v>
+        <v>139.7242281449203</v>
       </c>
       <c r="I37" t="n">
         <v>84.72039183635314</v>
       </c>
       <c r="J37" t="n">
-        <v>184.7936619848728</v>
+        <v>184.7936619848716</v>
       </c>
       <c r="K37" t="n">
-        <v>458.8121316202833</v>
+        <v>458.8121316202821</v>
       </c>
       <c r="L37" t="n">
-        <v>856.1764007393654</v>
+        <v>856.1764007393642</v>
       </c>
       <c r="M37" t="n">
-        <v>1283.817648560094</v>
+        <v>1283.817648560093</v>
       </c>
       <c r="N37" t="n">
-        <v>1707.474355793389</v>
+        <v>1707.474355793388</v>
       </c>
       <c r="O37" t="n">
         <v>2085.178882493748</v>
       </c>
       <c r="P37" t="n">
-        <v>2389.397173924978</v>
+        <v>2389.397173924977</v>
       </c>
       <c r="Q37" t="n">
-        <v>2526.280644385997</v>
+        <v>2526.280644385996</v>
       </c>
       <c r="R37" t="n">
-        <v>2483.809736548997</v>
+        <v>2483.809736548996</v>
       </c>
       <c r="S37" t="n">
         <v>2330.167639177758</v>
@@ -7132,7 +7132,7 @@
         <v>1662.521639263123</v>
       </c>
       <c r="W37" t="n">
-        <v>1405.252476262176</v>
+        <v>1405.252476262175</v>
       </c>
       <c r="X37" t="n">
         <v>1209.410932400171</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2109.916430950232</v>
+        <v>2109.91643095023</v>
       </c>
       <c r="C38" t="n">
-        <v>1773.101921045833</v>
+        <v>1773.101921045832</v>
       </c>
       <c r="D38" t="n">
-        <v>1446.984229475096</v>
+        <v>1446.984229475094</v>
       </c>
       <c r="E38" t="n">
-        <v>1093.343983912865</v>
+        <v>1093.343983912863</v>
       </c>
       <c r="F38" t="n">
-        <v>714.5060861592702</v>
+        <v>714.5060861592684</v>
       </c>
       <c r="G38" t="n">
-        <v>342.4320458785384</v>
+        <v>332.335841923523</v>
       </c>
       <c r="H38" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="I38" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="J38" t="n">
-        <v>336.3373776816197</v>
+        <v>336.3373776816189</v>
       </c>
       <c r="K38" t="n">
-        <v>764.1845327347924</v>
+        <v>764.1845327347914</v>
       </c>
       <c r="L38" t="n">
-        <v>1331.868523269587</v>
+        <v>1331.868523269585</v>
       </c>
       <c r="M38" t="n">
-        <v>1995.195781178449</v>
+        <v>1995.195781178447</v>
       </c>
       <c r="N38" t="n">
-        <v>2673.870175986407</v>
+        <v>2673.870175986405</v>
       </c>
       <c r="O38" t="n">
-        <v>3301.387900816041</v>
+        <v>3301.387900816039</v>
       </c>
       <c r="P38" t="n">
-        <v>3802.45875996351</v>
+        <v>3802.458759963508</v>
       </c>
       <c r="Q38" t="n">
-        <v>4130.569360978639</v>
+        <v>4130.569360978638</v>
       </c>
       <c r="R38" t="n">
-        <v>4236.019591817659</v>
+        <v>4236.019591817657</v>
       </c>
       <c r="S38" t="n">
-        <v>4175.063237432716</v>
+        <v>4175.063237432714</v>
       </c>
       <c r="T38" t="n">
-        <v>4004.535002464357</v>
+        <v>4004.535002464355</v>
       </c>
       <c r="U38" t="n">
-        <v>3783.212868684865</v>
+        <v>3783.212868684864</v>
       </c>
       <c r="V38" t="n">
-        <v>3484.297988377308</v>
+        <v>3484.297988377306</v>
       </c>
       <c r="W38" t="n">
-        <v>3163.677340143206</v>
+        <v>3163.677340143205</v>
       </c>
       <c r="X38" t="n">
-        <v>2822.35958891814</v>
+        <v>2822.359588918138</v>
       </c>
       <c r="Y38" t="n">
-        <v>2464.368263978341</v>
+        <v>2464.368263978339</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H39" t="n">
-        <v>89.83414822890187</v>
+        <v>89.83414822890184</v>
       </c>
       <c r="I39" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="J39" t="n">
-        <v>215.763897899882</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="K39" t="n">
-        <v>517.8929467899308</v>
+        <v>386.8494407264019</v>
       </c>
       <c r="L39" t="n">
-        <v>970.4652792181888</v>
+        <v>386.8494407264019</v>
       </c>
       <c r="M39" t="n">
-        <v>1517.952712876375</v>
+        <v>934.3368743845886</v>
       </c>
       <c r="N39" t="n">
-        <v>2094.339154719539</v>
+        <v>1432.149053525835</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.774633269369</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.774633269369</v>
+        <v>2323.233314387132</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.774633269369</v>
+        <v>2531.360316034383</v>
       </c>
       <c r="R39" t="n">
         <v>2555.774633269369</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>871.2659024984272</v>
+        <v>871.2659024984271</v>
       </c>
       <c r="C40" t="n">
-        <v>734.4777266065332</v>
+        <v>734.4777266065331</v>
       </c>
       <c r="D40" t="n">
         <v>616.5090942302104</v>
       </c>
       <c r="E40" t="n">
-        <v>500.7440076838302</v>
+        <v>500.7440076838303</v>
       </c>
       <c r="F40" t="n">
-        <v>386.0020672219327</v>
+        <v>386.0020672219329</v>
       </c>
       <c r="G40" t="n">
-        <v>250.7855452874648</v>
+        <v>250.7855452874647</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7242281449204</v>
+        <v>139.7242281449203</v>
       </c>
       <c r="I40" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635314</v>
       </c>
       <c r="J40" t="n">
-        <v>184.7936619848728</v>
+        <v>184.7936619848729</v>
       </c>
       <c r="K40" t="n">
-        <v>458.8121316202832</v>
+        <v>458.8121316202821</v>
       </c>
       <c r="L40" t="n">
-        <v>856.1764007393652</v>
+        <v>856.1764007393642</v>
       </c>
       <c r="M40" t="n">
-        <v>1283.817648560094</v>
+        <v>1283.817648560093</v>
       </c>
       <c r="N40" t="n">
-        <v>1707.474355793389</v>
+        <v>1707.474355793388</v>
       </c>
       <c r="O40" t="n">
         <v>2085.178882493748</v>
       </c>
       <c r="P40" t="n">
-        <v>2389.397173924978</v>
+        <v>2389.397173924977</v>
       </c>
       <c r="Q40" t="n">
-        <v>2526.280644385997</v>
+        <v>2526.280644385996</v>
       </c>
       <c r="R40" t="n">
         <v>2483.809736548996</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2312.900677121324</v>
+        <v>1852.732374662127</v>
       </c>
       <c r="C41" t="n">
-        <v>1943.938160180912</v>
+        <v>1483.769857721715</v>
       </c>
       <c r="D41" t="n">
-        <v>1585.672461574162</v>
+        <v>1125.504159114965</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.884208975917</v>
+        <v>739.7159065167207</v>
       </c>
       <c r="F41" t="n">
-        <v>788.8983041863097</v>
+        <v>328.7300017271131</v>
       </c>
       <c r="G41" t="n">
-        <v>374.5800529145513</v>
+        <v>97.64103815057476</v>
       </c>
       <c r="H41" t="n">
-        <v>84.72039183635314</v>
+        <v>97.64103815057476</v>
       </c>
       <c r="I41" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="J41" t="n">
-        <v>336.3373776816189</v>
+        <v>336.3373776816188</v>
       </c>
       <c r="K41" t="n">
         <v>764.1845327347914</v>
       </c>
       <c r="L41" t="n">
-        <v>1331.868523269585</v>
+        <v>1331.868523269586</v>
       </c>
       <c r="M41" t="n">
-        <v>1995.195781178447</v>
+        <v>1995.195781178448</v>
       </c>
       <c r="N41" t="n">
-        <v>2673.870175986405</v>
+        <v>2673.870175986406</v>
       </c>
       <c r="O41" t="n">
-        <v>3301.387900816039</v>
+        <v>3301.38790081604</v>
       </c>
       <c r="P41" t="n">
-        <v>3802.458759963508</v>
+        <v>3802.458759963509</v>
       </c>
       <c r="Q41" t="n">
-        <v>4130.569360978638</v>
+        <v>4130.569360978639</v>
       </c>
       <c r="R41" t="n">
-        <v>4236.019591817657</v>
+        <v>4236.019591817658</v>
       </c>
       <c r="S41" t="n">
-        <v>4236.019591817657</v>
+        <v>4142.915230396702</v>
       </c>
       <c r="T41" t="n">
-        <v>4033.343349813284</v>
+        <v>3940.23898839233</v>
       </c>
       <c r="U41" t="n">
-        <v>3779.87320899778</v>
+        <v>3686.768847576825</v>
       </c>
       <c r="V41" t="n">
-        <v>3463.105607422337</v>
+        <v>3355.705960233255</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.105607422337</v>
+        <v>3002.93730496314</v>
       </c>
       <c r="X41" t="n">
-        <v>3089.639849161258</v>
+        <v>2629.471546702061</v>
       </c>
       <c r="Y41" t="n">
-        <v>2699.500517185446</v>
+        <v>2239.332214726249</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H42" t="n">
-        <v>89.83414822890184</v>
+        <v>89.83414822890185</v>
       </c>
       <c r="I42" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="J42" t="n">
-        <v>215.763897899882</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="K42" t="n">
-        <v>517.8929467899306</v>
+        <v>386.8494407264019</v>
       </c>
       <c r="L42" t="n">
-        <v>970.4652792181887</v>
+        <v>839.4217731546599</v>
       </c>
       <c r="M42" t="n">
-        <v>1517.952712876375</v>
+        <v>1386.909206812847</v>
       </c>
       <c r="N42" t="n">
-        <v>2094.339154719539</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="O42" t="n">
-        <v>2555.774633269369</v>
+        <v>1937.210246382019</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.774633269369</v>
+        <v>2323.233314387132</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.774633269369</v>
+        <v>2531.360316034383</v>
       </c>
       <c r="R42" t="n">
         <v>2555.774633269369</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.5162104365792</v>
+        <v>469.9019681756622</v>
       </c>
       <c r="C43" t="n">
-        <v>511.5162104365792</v>
+        <v>469.9019681756622</v>
       </c>
       <c r="D43" t="n">
-        <v>511.5162104365792</v>
+        <v>319.7853287633264</v>
       </c>
       <c r="E43" t="n">
-        <v>511.5162104365792</v>
+        <v>171.8722351809334</v>
       </c>
       <c r="F43" t="n">
-        <v>364.6262629386688</v>
+        <v>171.8722351809334</v>
       </c>
       <c r="G43" t="n">
-        <v>197.2617339681877</v>
+        <v>171.8722351809334</v>
       </c>
       <c r="H43" t="n">
-        <v>84.72039183635314</v>
+        <v>171.8722351809334</v>
       </c>
       <c r="I43" t="n">
-        <v>84.72039183635314</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="J43" t="n">
-        <v>153.2854002888765</v>
+        <v>153.2854002888766</v>
       </c>
       <c r="K43" t="n">
         <v>395.7956082282907</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2312.900677121324</v>
+        <v>1852.732374662127</v>
       </c>
       <c r="C44" t="n">
-        <v>1943.938160180912</v>
+        <v>1483.769857721715</v>
       </c>
       <c r="D44" t="n">
-        <v>1585.672461574162</v>
+        <v>1125.504159114965</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.884208975917</v>
+        <v>739.7159065167207</v>
       </c>
       <c r="F44" t="n">
-        <v>788.8983041863098</v>
+        <v>374.5800529145513</v>
       </c>
       <c r="G44" t="n">
-        <v>374.5800529145514</v>
+        <v>374.5800529145513</v>
       </c>
       <c r="H44" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="I44" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="J44" t="n">
-        <v>336.3373776816188</v>
+        <v>336.3373776816189</v>
       </c>
       <c r="K44" t="n">
-        <v>764.1845327347919</v>
+        <v>764.1845327347914</v>
       </c>
       <c r="L44" t="n">
         <v>1331.868523269586</v>
@@ -7670,28 +7670,28 @@
         <v>4130.569360978639</v>
       </c>
       <c r="R44" t="n">
-        <v>4236.019591817659</v>
+        <v>4236.019591817658</v>
       </c>
       <c r="S44" t="n">
-        <v>4146.937150036022</v>
+        <v>4142.915230396702</v>
       </c>
       <c r="T44" t="n">
-        <v>4146.937150036022</v>
+        <v>3940.23898839233</v>
       </c>
       <c r="U44" t="n">
-        <v>4146.937150036022</v>
+        <v>3686.768847576825</v>
       </c>
       <c r="V44" t="n">
-        <v>3815.874262692452</v>
+        <v>3355.705960233255</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.105607422337</v>
+        <v>3002.93730496314</v>
       </c>
       <c r="X44" t="n">
-        <v>3089.639849161258</v>
+        <v>2629.471546702061</v>
       </c>
       <c r="Y44" t="n">
-        <v>2699.500517185446</v>
+        <v>2239.332214726249</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>176.4387732249934</v>
       </c>
       <c r="H45" t="n">
-        <v>89.83414822890187</v>
+        <v>89.83414822890185</v>
       </c>
       <c r="I45" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="J45" t="n">
-        <v>84.72039183635317</v>
+        <v>215.763897899882</v>
       </c>
       <c r="K45" t="n">
-        <v>84.72039183635317</v>
+        <v>215.763897899882</v>
       </c>
       <c r="L45" t="n">
         <v>308.2751780244854</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.1203754112089</v>
+        <v>329.8677456063394</v>
       </c>
       <c r="C46" t="n">
-        <v>542.184192483302</v>
+        <v>329.8677456063394</v>
       </c>
       <c r="D46" t="n">
-        <v>542.184192483302</v>
+        <v>329.8677456063394</v>
       </c>
       <c r="E46" t="n">
-        <v>542.184192483302</v>
+        <v>329.8677456063394</v>
       </c>
       <c r="F46" t="n">
-        <v>395.2942449853916</v>
+        <v>329.8677456063394</v>
       </c>
       <c r="G46" t="n">
-        <v>227.9297160149105</v>
+        <v>315.0815593594907</v>
       </c>
       <c r="H46" t="n">
-        <v>84.72039183635317</v>
+        <v>171.8722351809334</v>
       </c>
       <c r="I46" t="n">
-        <v>84.72039183635317</v>
+        <v>84.72039183635316</v>
       </c>
       <c r="J46" t="n">
         <v>153.2854002888766</v>
@@ -7834,22 +7834,22 @@
         <v>2013.805531537761</v>
       </c>
       <c r="T46" t="n">
-        <v>1885.652628525844</v>
+        <v>1793.484412450523</v>
       </c>
       <c r="U46" t="n">
-        <v>1885.652628525844</v>
+        <v>1504.399998720974</v>
       </c>
       <c r="V46" t="n">
-        <v>1630.968140319957</v>
+        <v>1249.715510515087</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.550970282996</v>
+        <v>960.2983404781266</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.561419384979</v>
+        <v>732.3087895801093</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7688402414486</v>
+        <v>511.5162104365792</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K2" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
-        <v>33.21421067057256</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M2" t="n">
-        <v>4.658850007114239</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.161922983629779</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P2" t="n">
-        <v>42.66898511507466</v>
+        <v>47.04693691028752</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05352634584477</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>51.99825569640058</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M4" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N4" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O4" t="n">
         <v>59.87999055852636</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>68.65190234826171</v>
+        <v>75.52794808997315</v>
       </c>
       <c r="K5" t="n">
         <v>51.64037691895487</v>
       </c>
       <c r="L5" t="n">
-        <v>33.66599273695107</v>
+        <v>31.2078198577327</v>
       </c>
       <c r="M5" t="n">
-        <v>4.417872862493069</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.85315158552481</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P5" t="n">
-        <v>40.80429423377234</v>
+        <v>47.68033997548378</v>
       </c>
       <c r="Q5" t="n">
         <v>79.30166562967011</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>59.99978994537916</v>
+        <v>66.8758356870906</v>
       </c>
       <c r="L7" t="n">
         <v>53.16942317027382</v>
       </c>
       <c r="M7" t="n">
-        <v>52.68764873420156</v>
+        <v>45.81160299249012</v>
       </c>
       <c r="N7" t="n">
-        <v>43.66145635451461</v>
+        <v>36.78541061280318</v>
       </c>
       <c r="O7" t="n">
         <v>61.37159796783205</v>
       </c>
       <c r="P7" t="n">
-        <v>65.88487562446231</v>
+        <v>72.76092136617375</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8453,25 +8453,25 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
-        <v>51.64037691895487</v>
+        <v>56.05824978144794</v>
       </c>
       <c r="L8" t="n">
-        <v>26.78994699523963</v>
+        <v>33.66599273695107</v>
       </c>
       <c r="M8" t="n">
-        <v>4.69569289246121</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.57533155555667</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P8" t="n">
-        <v>47.68033997548378</v>
+        <v>40.80429423377234</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.30166562967011</v>
+        <v>86.17771137138155</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,13 +8611,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>59.99978994537916</v>
+        <v>66.59801565712245</v>
       </c>
       <c r="L10" t="n">
-        <v>53.16942317027382</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M10" t="n">
-        <v>52.68764873420156</v>
+        <v>45.81160299249012</v>
       </c>
       <c r="N10" t="n">
         <v>43.66145635451461</v>
@@ -8626,7 +8626,7 @@
         <v>61.37159796783205</v>
       </c>
       <c r="P10" t="n">
-        <v>65.88487562446231</v>
+        <v>72.76092136617375</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.995241915464305</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.995241915462657</v>
       </c>
     </row>
     <row r="12">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.995241915462543</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.99524191546422</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.995241915463566</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.995241915465215</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.995241915465215</v>
+        <v>9.995241915463396</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9.995241915463282</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.995241915463453</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.995241915465158</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.995241915465186</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.995241915463396</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.995241915463367</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24929,10 +24929,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.995241915465215</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.995241915463453</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.995241915463396</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.995241915465215</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.3969948182678</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.9610644674162</v>
       </c>
       <c r="I41" t="n">
-        <v>12.79143985107939</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.17331780674587</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14.1523329104466</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>138.6338803436295</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6908836807763</v>
       </c>
       <c r="H43" t="n">
-        <v>30.36130222625555</v>
+        <v>141.7772309367717</v>
       </c>
       <c r="I43" t="n">
-        <v>86.28032491113439</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>45.39155067556379</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.1750687590408</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.981700442925657</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>200.6494795843284</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.935439407349</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>151.0525592963961</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.28032491113439</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>91.24653391456717</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1935695922537</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730524.2032970947</v>
+        <v>730524.2032970949</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730524.2032970946</v>
+        <v>730524.2032970947</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730524.2032970946</v>
+        <v>730524.2032970947</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730524.2032970946</v>
+        <v>730524.2032970947</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730524.2032970947</v>
+        <v>730524.2032970946</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>682665.0659215214</v>
+        <v>682665.0659215215</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717593.6537028097</v>
+        <v>717593.6537028099</v>
       </c>
       <c r="C2" t="n">
-        <v>717916.8635114579</v>
+        <v>717916.8635114582</v>
       </c>
       <c r="D2" t="n">
         <v>717916.8635114579</v>
       </c>
       <c r="E2" t="n">
-        <v>717715.3800318358</v>
+        <v>717715.380031836</v>
       </c>
       <c r="F2" t="n">
-        <v>717715.3800318359</v>
+        <v>717715.3800318365</v>
       </c>
       <c r="G2" t="n">
-        <v>717715.3800318361</v>
+        <v>717715.3800318362</v>
       </c>
       <c r="H2" t="n">
         <v>717715.3800318365</v>
       </c>
       <c r="I2" t="n">
+        <v>717715.380031836</v>
+      </c>
+      <c r="J2" t="n">
         <v>717715.3800318362</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>717715.3800318358</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>717715.3800318367</v>
+      </c>
+      <c r="M2" t="n">
         <v>717715.3800318365</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>717715.3800318363</v>
       </c>
-      <c r="M2" t="n">
-        <v>717715.380031836</v>
-      </c>
-      <c r="N2" t="n">
-        <v>717715.3800318365</v>
-      </c>
       <c r="O2" t="n">
+        <v>669856.2426562624</v>
+      </c>
+      <c r="P2" t="n">
         <v>669856.2426562626</v>
-      </c>
-      <c r="P2" t="n">
-        <v>669856.2426562628</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1099703.806428085</v>
+        <v>1099703.806428086</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26654.91648969222</v>
+        <v>26654.91648969225</v>
       </c>
       <c r="K3" t="n">
         <v>595.4875608170599</v>
@@ -26399,7 +26399,7 @@
         <v>262194.7184868145</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>354789.5543759665</v>
       </c>
       <c r="C4" t="n">
-        <v>353886.8168243827</v>
+        <v>353886.8168243828</v>
       </c>
       <c r="D4" t="n">
-        <v>353886.8168243827</v>
+        <v>353886.8168243828</v>
       </c>
       <c r="E4" t="n">
-        <v>44845.19807957894</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="F4" t="n">
-        <v>44845.19807957894</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="G4" t="n">
-        <v>44845.19807957895</v>
+        <v>44845.19807957891</v>
       </c>
       <c r="H4" t="n">
-        <v>44845.19807957894</v>
+        <v>44845.19807957892</v>
       </c>
       <c r="I4" t="n">
         <v>44845.19807957893</v>
       </c>
       <c r="J4" t="n">
-        <v>44845.19807957891</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="K4" t="n">
-        <v>44845.19807957891</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="L4" t="n">
-        <v>44845.19807957891</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="M4" t="n">
-        <v>44845.19807957891</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="N4" t="n">
-        <v>44845.19807957891</v>
+        <v>44845.19807957893</v>
       </c>
       <c r="O4" t="n">
+        <v>13547.85959248699</v>
+      </c>
+      <c r="P4" t="n">
         <v>13547.859592487</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13547.85959248699</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>41226.73635463382</v>
       </c>
       <c r="E5" t="n">
-        <v>94869.18783821436</v>
+        <v>94869.18783821439</v>
       </c>
       <c r="F5" t="n">
+        <v>94869.18783821439</v>
+      </c>
+      <c r="G5" t="n">
+        <v>94869.18783821439</v>
+      </c>
+      <c r="H5" t="n">
         <v>94869.18783821438</v>
-      </c>
-      <c r="G5" t="n">
-        <v>94869.18783821435</v>
-      </c>
-      <c r="H5" t="n">
-        <v>94869.18783821436</v>
       </c>
       <c r="I5" t="n">
         <v>94869.18783821438</v>
@@ -26497,16 +26497,16 @@
         <v>94869.18783821438</v>
       </c>
       <c r="L5" t="n">
-        <v>94869.18783821436</v>
+        <v>94869.18783821438</v>
       </c>
       <c r="M5" t="n">
         <v>94869.18783821436</v>
       </c>
       <c r="N5" t="n">
-        <v>94869.18783821438</v>
+        <v>94869.18783821436</v>
       </c>
       <c r="O5" t="n">
-        <v>92193.56354273889</v>
+        <v>92193.56354273891</v>
       </c>
       <c r="P5" t="n">
         <v>92193.56354273891</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5946.761686118021</v>
+        <v>5944.424843465575</v>
       </c>
       <c r="C6" t="n">
-        <v>319118.5866506282</v>
+        <v>319117.1732645718</v>
       </c>
       <c r="D6" t="n">
-        <v>322803.3103324414</v>
+        <v>322801.8969463848</v>
       </c>
       <c r="E6" t="n">
-        <v>-521702.8123140428</v>
+        <v>-521704.8013671843</v>
       </c>
       <c r="F6" t="n">
-        <v>578000.9941140424</v>
+        <v>577999.005060902</v>
       </c>
       <c r="G6" t="n">
-        <v>578000.9941140432</v>
+        <v>577999.0050609017</v>
       </c>
       <c r="H6" t="n">
-        <v>578000.9941140431</v>
+        <v>577999.0050609021</v>
       </c>
       <c r="I6" t="n">
-        <v>578000.9941140428</v>
+        <v>577999.0050609015</v>
       </c>
       <c r="J6" t="n">
-        <v>551346.0776243503</v>
+        <v>551344.0885712095</v>
       </c>
       <c r="K6" t="n">
-        <v>577405.5065532262</v>
+        <v>577403.5175000842</v>
       </c>
       <c r="L6" t="n">
-        <v>578000.9941140432</v>
+        <v>577999.0050609022</v>
       </c>
       <c r="M6" t="n">
-        <v>315806.2756272282</v>
+        <v>315804.2865740875</v>
       </c>
       <c r="N6" t="n">
-        <v>578000.9941140431</v>
+        <v>577999.0050609019</v>
       </c>
       <c r="O6" t="n">
-        <v>564114.8195210367</v>
+        <v>563976.0900753938</v>
       </c>
       <c r="P6" t="n">
-        <v>564114.8195210369</v>
+        <v>563976.0900753939</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>31.82652696565282</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.82652696565282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.8265269656528</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.8265269656528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.8265269656528</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.82652696565282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.82652696565282</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.82652696565284</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>31.82652696565284</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>31.82652696565284</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.82652696565284</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.82652696565284</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.8265269656528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.8265269656528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.8265269656528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.8265269656528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.8265269656528</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26744,13 +26744,13 @@
         <v>329.4070079604484</v>
       </c>
       <c r="E3" t="n">
-        <v>1275.507603078463</v>
+        <v>1275.507603078464</v>
       </c>
       <c r="F3" t="n">
         <v>1275.507603078464</v>
       </c>
       <c r="G3" t="n">
-        <v>1275.507603078463</v>
+        <v>1275.507603078464</v>
       </c>
       <c r="H3" t="n">
         <v>1275.507603078463</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1059.004897954414</v>
+        <v>1059.004897954415</v>
       </c>
       <c r="F4" t="n">
-        <v>1059.004897954414</v>
+        <v>1059.004897954415</v>
       </c>
       <c r="G4" t="n">
-        <v>1059.004897954414</v>
+        <v>1059.004897954415</v>
       </c>
       <c r="H4" t="n">
-        <v>1059.004897954414</v>
+        <v>1059.004897954415</v>
       </c>
       <c r="I4" t="n">
         <v>1059.004897954415</v>
@@ -26817,19 +26817,19 @@
         <v>1059.004897954415</v>
       </c>
       <c r="L4" t="n">
-        <v>1059.004897954414</v>
+        <v>1059.004897954415</v>
       </c>
       <c r="M4" t="n">
         <v>1059.004897954414</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.004897954415</v>
+        <v>1059.004897954414</v>
       </c>
       <c r="O4" t="n">
         <v>1059.004897954414</v>
       </c>
       <c r="P4" t="n">
-        <v>1059.004897954415</v>
+        <v>1059.004897954414</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>31.82652696565282</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>31.82652696565284</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.8265269656528</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>946.100595118015</v>
+        <v>946.1005951180152</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>4.562286607642363</v>
@@ -27045,7 +27045,7 @@
         <v>1052.128852212703</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>31.82652696565282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.82652696565284</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.8265269656528</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9042228761834</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1392278518137</v>
+        <v>175.1207658078018</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27436,7 +27436,7 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>323.189971862492</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>142.8827789569959</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H3" t="n">
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>60.67845717669304</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S3" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T3" t="n">
         <v>197.336797223147</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.6765211169078</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.6642337332925</v>
+        <v>201.1204091696615</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.2696935742944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>140.8587614152884</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.8404967259184</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H4" t="n">
         <v>156.9975751224423</v>
@@ -27558,7 +27558,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J4" t="n">
-        <v>47.75525911241137</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S4" t="n">
         <v>213.7659454939867</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4323882309924</v>
+        <v>220.8701016233495</v>
       </c>
       <c r="U4" t="n">
-        <v>286.286945936951</v>
+        <v>282.2684838929392</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>221.1473687813943</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.80869847563716</v>
+        <v>66.68474421734859</v>
       </c>
       <c r="S5" t="n">
         <v>178.8437391585118</v>
@@ -27670,13 +27670,13 @@
         <v>217.2989483486666</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2397129655779</v>
+        <v>244.3636672238664</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>141.3886444753393</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I6" t="n">
-        <v>58.12582284093458</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S6" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T6" t="n">
         <v>197.3088320880702</v>
@@ -27752,13 +27752,13 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G7" t="n">
-        <v>161.3405456318536</v>
+        <v>167.396966721153</v>
       </c>
       <c r="H7" t="n">
         <v>156.9458601503032</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R7" t="n">
         <v>150.5844231579502</v>
       </c>
       <c r="S7" t="n">
-        <v>213.6645778031988</v>
+        <v>206.7885320614874</v>
       </c>
       <c r="T7" t="n">
         <v>218.5314896908092</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>59.80869847563716</v>
+        <v>66.68474421734859</v>
       </c>
       <c r="S8" t="n">
         <v>178.8437391585118</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2989483486666</v>
+        <v>210.4229026069551</v>
       </c>
       <c r="U8" t="n">
         <v>251.2397129655779</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.578560245468</v>
+        <v>136.6349813347674</v>
       </c>
       <c r="H9" t="n">
         <v>105.3924797881105</v>
@@ -27986,7 +27986,7 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8947678817351</v>
+        <v>219.0187221400237</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>142.5590519289129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.9458601503032</v>
       </c>
       <c r="I10" t="n">
-        <v>130.7108491472983</v>
+        <v>137.5868948890097</v>
       </c>
       <c r="J10" t="n">
-        <v>44.48644091744647</v>
+        <v>51.36248665915791</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R10" t="n">
-        <v>150.5844231579502</v>
+        <v>144.5280020686508</v>
       </c>
       <c r="S10" t="n">
         <v>213.6645778031988</v>
@@ -28065,10 +28065,10 @@
         <v>225.4075354325207</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2866286671833</v>
+        <v>279.4105829254719</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I11" t="n">
-        <v>12.79143985107939</v>
+        <v>12.79143985107936</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="J13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="K13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="L13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="M13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="N13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="O13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="P13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="R13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="S13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I14" t="n">
         <v>12.79143985107936</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="J16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="K16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="L16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="M16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="N16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="O16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="P16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="R16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="S16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="C17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="D17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="E17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="F17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="G17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="H17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="I17" t="n">
-        <v>12.79143985107942</v>
+        <v>12.79143985107936</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="T17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="U17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="V17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="W17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="X17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="D19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="E19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="F19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="G19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="H19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="I19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="J19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="K19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="L19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="M19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="N19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="O19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="P19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.82652696565303</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="R19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="S19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="T19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="U19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="V19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="W19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="X19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="C20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="D20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="E20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="F20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="G20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="H20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="I20" t="n">
         <v>12.79143985107939</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="T20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="U20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="V20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="W20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="X20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="C22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="D22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="E22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="F22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="G22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="H22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="I22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="J22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565351</v>
       </c>
       <c r="K22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="L22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="M22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="N22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="O22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="P22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="R22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="S22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="T22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="U22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="V22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="W22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="X22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="C23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="D23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="E23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="F23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="G23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="H23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="I23" t="n">
         <v>12.79143985107939</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="T23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="U23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="V23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="W23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="X23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="C25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="D25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="E25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="F25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="G25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="H25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="I25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="J25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.82652696565351</v>
       </c>
       <c r="K25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="L25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="M25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="N25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="O25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="P25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.82652696565209</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="R25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="S25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="T25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="U25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="V25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="W25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="X25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.82652696565284</v>
+        <v>31.8265269656528</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I26" t="n">
         <v>12.79143985107939</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="J28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="K28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="L28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="M28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="N28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="O28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="P28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="R28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I29" t="n">
         <v>12.79143985107939</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="C31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="D31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="E31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="F31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="G31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="H31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="I31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="J31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="K31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="L31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="M31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="N31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="O31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="P31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="R31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="S31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="T31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="U31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="V31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="W31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="X31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565282</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="C32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="D32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="E32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="F32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="G32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="H32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="I32" t="n">
         <v>12.79143985107939</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="T32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="U32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="V32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="W32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="X32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="C34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="D34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="E34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="F34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="G34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="H34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="I34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="J34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="K34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.8265269656516</v>
       </c>
       <c r="L34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="M34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="N34" t="n">
-        <v>31.8265269656527</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="O34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="P34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="R34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="S34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="T34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="U34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="V34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="W34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="X34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="C35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="D35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="E35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="F35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="G35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="H35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="I35" t="n">
         <v>12.79143985107939</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="T35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="U35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="V35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="W35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="X35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="C37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="D37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="E37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="F37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="G37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="H37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="I37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="J37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.8265269656516</v>
       </c>
       <c r="K37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="L37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="M37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="N37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="O37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="P37" t="n">
-        <v>31.82652696565304</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="R37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="S37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="T37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="U37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="V37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="W37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="X37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="C38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="D38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="E38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="F38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="G38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="H38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="I38" t="n">
         <v>12.79143985107939</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="T38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="U38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="V38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="W38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="X38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="C40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="D40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="E40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="F40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="G40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="H40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="I40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="J40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="K40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.8265269656516</v>
       </c>
       <c r="L40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="M40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="N40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="O40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="P40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="R40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="S40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="T40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="U40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="V40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="W40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="X40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.8265269656528</v>
+        <v>31.82652696565284</v>
       </c>
     </row>
     <row r="41">
@@ -31133,10 +31133,10 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L3" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M3" t="n">
-        <v>146.6963205296612</v>
+        <v>146.5119857172312</v>
       </c>
       <c r="N3" t="n">
         <v>135.9039986909762</v>
@@ -31373,16 +31373,16 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N6" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>147.8696104706878</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.44397697812161</v>
@@ -31610,16 +31610,16 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>147.4073999482616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.44397697812161</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.127668756094321</v>
+        <v>5.127668756094322</v>
       </c>
       <c r="H11" t="n">
-        <v>52.51373764835098</v>
+        <v>52.513737648351</v>
       </c>
       <c r="I11" t="n">
-        <v>197.6844497193265</v>
+        <v>197.6844497193266</v>
       </c>
       <c r="J11" t="n">
-        <v>435.2044760875608</v>
+        <v>435.2044760875609</v>
       </c>
       <c r="K11" t="n">
-        <v>652.2586945330336</v>
+        <v>652.2586945330337</v>
       </c>
       <c r="L11" t="n">
-        <v>809.1845872273553</v>
+        <v>809.1845872273556</v>
       </c>
       <c r="M11" t="n">
-        <v>900.3737664685477</v>
+        <v>900.3737664685478</v>
       </c>
       <c r="N11" t="n">
-        <v>914.9427553218007</v>
+        <v>914.942755321801</v>
       </c>
       <c r="O11" t="n">
-        <v>863.9544991283879</v>
+        <v>863.954499128388</v>
       </c>
       <c r="P11" t="n">
-        <v>737.3651767123091</v>
+        <v>737.3651767123092</v>
       </c>
       <c r="Q11" t="n">
-        <v>553.730539384681</v>
+        <v>553.7305393846812</v>
       </c>
       <c r="R11" t="n">
-        <v>322.1009225000102</v>
+        <v>322.1009225000103</v>
       </c>
       <c r="S11" t="n">
         <v>116.8467517794995</v>
@@ -31832,10 +31832,10 @@
         <v>2.743544655678205</v>
       </c>
       <c r="H12" t="n">
-        <v>26.49686549036582</v>
+        <v>26.49686549036583</v>
       </c>
       <c r="I12" t="n">
-        <v>94.4597611713768</v>
+        <v>94.45976117137681</v>
       </c>
       <c r="J12" t="n">
         <v>259.204804508615</v>
@@ -31844,28 +31844,28 @@
         <v>443.0222964390547</v>
       </c>
       <c r="L12" t="n">
-        <v>595.6981499094278</v>
+        <v>595.6981499094279</v>
       </c>
       <c r="M12" t="n">
-        <v>695.1516436777625</v>
+        <v>536.435574649964</v>
       </c>
       <c r="N12" t="n">
-        <v>669.4838611104145</v>
+        <v>713.5502391976398</v>
       </c>
       <c r="O12" t="n">
-        <v>652.7590655112963</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>523.8966983285864</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>350.2110686792039</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.3404304639504</v>
       </c>
       <c r="S12" t="n">
-        <v>50.9601386701631</v>
+        <v>50.96013867016312</v>
       </c>
       <c r="T12" t="n">
         <v>11.05841025687837</v>
@@ -31914,28 +31914,28 @@
         <v>20.44994157066784</v>
       </c>
       <c r="I13" t="n">
-        <v>69.1701500161239</v>
+        <v>69.17015001612391</v>
       </c>
       <c r="J13" t="n">
         <v>162.616764412151</v>
       </c>
       <c r="K13" t="n">
-        <v>267.2292978252911</v>
+        <v>267.2292978252912</v>
       </c>
       <c r="L13" t="n">
-        <v>341.9614973892654</v>
+        <v>341.9614973892655</v>
       </c>
       <c r="M13" t="n">
-        <v>360.550452457081</v>
+        <v>360.5504524570811</v>
       </c>
       <c r="N13" t="n">
-        <v>351.9773685675375</v>
+        <v>351.9773685675376</v>
       </c>
       <c r="O13" t="n">
-        <v>325.1080690600648</v>
+        <v>325.1080690600649</v>
       </c>
       <c r="P13" t="n">
-        <v>278.1861172353421</v>
+        <v>278.1861172353422</v>
       </c>
       <c r="Q13" t="n">
         <v>192.601648064848</v>
@@ -31944,13 +31944,13 @@
         <v>103.4206656528865</v>
       </c>
       <c r="S13" t="n">
-        <v>40.08439467379366</v>
+        <v>40.08439467379367</v>
       </c>
       <c r="T13" t="n">
-        <v>9.827681531916026</v>
+        <v>9.827681531916028</v>
       </c>
       <c r="U13" t="n">
-        <v>0.125459764237226</v>
+        <v>0.1254597642372261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>259.204804508615</v>
       </c>
       <c r="K15" t="n">
-        <v>443.0222964390547</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>595.6981499094279</v>
+        <v>466.8903383726415</v>
       </c>
       <c r="M15" t="n">
         <v>695.1516436777626</v>
@@ -32090,10 +32090,10 @@
         <v>713.5502391976398</v>
       </c>
       <c r="O15" t="n">
-        <v>608.6926874240705</v>
+        <v>652.7590655112964</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>523.8966983285864</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.12766875609432</v>
+        <v>5.127668756094322</v>
       </c>
       <c r="H17" t="n">
-        <v>52.51373764835098</v>
+        <v>52.513737648351</v>
       </c>
       <c r="I17" t="n">
-        <v>197.6844497193265</v>
+        <v>197.6844497193266</v>
       </c>
       <c r="J17" t="n">
-        <v>435.2044760875607</v>
+        <v>435.2044760875609</v>
       </c>
       <c r="K17" t="n">
-        <v>652.2586945330335</v>
+        <v>652.2586945330337</v>
       </c>
       <c r="L17" t="n">
-        <v>809.1845872273552</v>
+        <v>809.1845872273556</v>
       </c>
       <c r="M17" t="n">
-        <v>900.3737664685475</v>
+        <v>900.3737664685478</v>
       </c>
       <c r="N17" t="n">
-        <v>914.9427553218006</v>
+        <v>914.942755321801</v>
       </c>
       <c r="O17" t="n">
-        <v>863.9544991283876</v>
+        <v>863.954499128388</v>
       </c>
       <c r="P17" t="n">
-        <v>737.365176712309</v>
+        <v>737.3651767123092</v>
       </c>
       <c r="Q17" t="n">
-        <v>553.7305393846809</v>
+        <v>553.7305393846812</v>
       </c>
       <c r="R17" t="n">
-        <v>322.1009225000101</v>
+        <v>322.1009225000103</v>
       </c>
       <c r="S17" t="n">
         <v>116.8467517794995</v>
       </c>
       <c r="T17" t="n">
-        <v>22.4463699798029</v>
+        <v>22.44636997980291</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4102135004875456</v>
+        <v>0.4102135004875457</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.743544655678204</v>
+        <v>2.743544655678205</v>
       </c>
       <c r="H18" t="n">
-        <v>26.49686549036582</v>
+        <v>26.49686549036583</v>
       </c>
       <c r="I18" t="n">
-        <v>94.45976117137677</v>
+        <v>94.45976117137681</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.204804508615</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>327.1610161001486</v>
       </c>
       <c r="L18" t="n">
-        <v>595.6981499094277</v>
+        <v>595.6981499094279</v>
       </c>
       <c r="M18" t="n">
-        <v>695.1516436777624</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>713.5502391976396</v>
+        <v>713.5502391976398</v>
       </c>
       <c r="O18" t="n">
-        <v>652.7590655112962</v>
+        <v>652.7590655112964</v>
       </c>
       <c r="P18" t="n">
-        <v>523.8966983285862</v>
+        <v>523.8966983285864</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.5411403911846</v>
+        <v>350.2110686792039</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.3404304639504</v>
       </c>
       <c r="S18" t="n">
-        <v>50.9601386701631</v>
+        <v>50.96013867016312</v>
       </c>
       <c r="T18" t="n">
         <v>11.05841025687837</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1804963589261977</v>
+        <v>0.1804963589261978</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.300095677682474</v>
+        <v>2.300095677682475</v>
       </c>
       <c r="H19" t="n">
-        <v>20.44994157066783</v>
+        <v>20.44994157066784</v>
       </c>
       <c r="I19" t="n">
-        <v>69.17015001612388</v>
+        <v>69.17015001612391</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6167644121509</v>
+        <v>162.616764412151</v>
       </c>
       <c r="K19" t="n">
-        <v>267.229297825291</v>
+        <v>267.2292978252912</v>
       </c>
       <c r="L19" t="n">
-        <v>341.9614973892654</v>
+        <v>341.9614973892655</v>
       </c>
       <c r="M19" t="n">
-        <v>360.550452457081</v>
+        <v>360.5504524570811</v>
       </c>
       <c r="N19" t="n">
-        <v>351.9773685675374</v>
+        <v>351.9773685675376</v>
       </c>
       <c r="O19" t="n">
-        <v>325.1080690600648</v>
+        <v>325.1080690600649</v>
       </c>
       <c r="P19" t="n">
-        <v>278.1861172353421</v>
+        <v>278.1861172353422</v>
       </c>
       <c r="Q19" t="n">
         <v>192.601648064848</v>
@@ -32418,13 +32418,13 @@
         <v>103.4206656528865</v>
       </c>
       <c r="S19" t="n">
-        <v>40.08439467379365</v>
+        <v>40.08439467379367</v>
       </c>
       <c r="T19" t="n">
-        <v>9.827681531916024</v>
+        <v>9.827681531916028</v>
       </c>
       <c r="U19" t="n">
-        <v>0.125459764237226</v>
+        <v>0.1254597642372261</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>595.6981499094278</v>
       </c>
       <c r="M21" t="n">
-        <v>695.1516436777625</v>
+        <v>331.4536110478083</v>
       </c>
       <c r="N21" t="n">
         <v>713.5502391976397</v>
@@ -32567,7 +32567,7 @@
         <v>652.7590655112963</v>
       </c>
       <c r="P21" t="n">
-        <v>160.1986656986325</v>
+        <v>523.8966983285864</v>
       </c>
       <c r="Q21" t="n">
         <v>350.2110686792038</v>
@@ -32795,7 +32795,7 @@
         <v>595.6981499094278</v>
       </c>
       <c r="M24" t="n">
-        <v>695.1516436777625</v>
+        <v>573.2231488393032</v>
       </c>
       <c r="N24" t="n">
         <v>713.5502391976397</v>
@@ -32804,10 +32804,10 @@
         <v>652.7590655112963</v>
       </c>
       <c r="P24" t="n">
-        <v>222.2752071690535</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.2110686792038</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,19 +33023,19 @@
         <v>94.4597611713768</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.204804508615</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.0222964390547</v>
       </c>
       <c r="L27" t="n">
-        <v>364.3672951214219</v>
+        <v>595.6981499094278</v>
       </c>
       <c r="M27" t="n">
-        <v>695.1516436777625</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>713.5502391976397</v>
+        <v>597.6889588587339</v>
       </c>
       <c r="O27" t="n">
         <v>652.7590655112963</v>
@@ -33260,22 +33260,22 @@
         <v>94.4597611713768</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.204804508615</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.0222964390547</v>
       </c>
       <c r="L30" t="n">
-        <v>364.3672951214219</v>
+        <v>595.6981499094278</v>
       </c>
       <c r="M30" t="n">
-        <v>695.1516436777625</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>713.5502391976397</v>
       </c>
       <c r="O30" t="n">
-        <v>652.7590655112963</v>
+        <v>536.8977851723905</v>
       </c>
       <c r="P30" t="n">
         <v>523.8966983285864</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.0222964390547</v>
       </c>
       <c r="L33" t="n">
-        <v>364.3672951214219</v>
+        <v>595.6981499094278</v>
       </c>
       <c r="M33" t="n">
         <v>695.1516436777625</v>
       </c>
       <c r="N33" t="n">
-        <v>713.5502391976397</v>
+        <v>687.2013480117901</v>
       </c>
       <c r="O33" t="n">
-        <v>652.7590655112963</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>523.8966983285864</v>
@@ -33734,10 +33734,10 @@
         <v>94.4597611713768</v>
       </c>
       <c r="J36" t="n">
-        <v>259.204804508615</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>443.0222964390547</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>595.6981499094278</v>
@@ -33749,16 +33749,16 @@
         <v>713.5502391976397</v>
       </c>
       <c r="O36" t="n">
-        <v>608.692687424071</v>
+        <v>652.7590655112963</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>292.5658435405806</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>350.2110686792038</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.3404304639504</v>
       </c>
       <c r="S36" t="n">
         <v>50.9601386701631</v>
@@ -33971,31 +33971,31 @@
         <v>94.4597611713768</v>
       </c>
       <c r="J39" t="n">
-        <v>259.204804508615</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>443.0222964390547</v>
       </c>
       <c r="L39" t="n">
-        <v>595.6981499094278</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>695.1516436777625</v>
       </c>
       <c r="N39" t="n">
-        <v>713.5502391976397</v>
+        <v>634.1822970744917</v>
       </c>
       <c r="O39" t="n">
-        <v>608.692687424071</v>
+        <v>652.7590655112963</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>523.8966983285864</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.2110686792038</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.3404304639504</v>
       </c>
       <c r="S39" t="n">
         <v>50.9601386701631</v>
@@ -34208,7 +34208,7 @@
         <v>94.4597611713768</v>
       </c>
       <c r="J42" t="n">
-        <v>259.204804508615</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>443.0222964390547</v>
@@ -34220,19 +34220,19 @@
         <v>695.1516436777625</v>
       </c>
       <c r="N42" t="n">
-        <v>713.5502391976397</v>
+        <v>687.2013480117901</v>
       </c>
       <c r="O42" t="n">
-        <v>608.692687424071</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>523.8966983285864</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>350.2110686792038</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.3404304639504</v>
       </c>
       <c r="S42" t="n">
         <v>50.9601386701631</v>
@@ -34381,7 +34381,7 @@
         <v>914.9427553218007</v>
       </c>
       <c r="O44" t="n">
-        <v>863.9544991283879</v>
+        <v>863.9544991283883</v>
       </c>
       <c r="P44" t="n">
         <v>737.3651767123091</v>
@@ -34445,13 +34445,13 @@
         <v>94.4597611713768</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.204804508615</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>364.3672951214219</v>
+        <v>232.0001172794736</v>
       </c>
       <c r="M45" t="n">
         <v>695.1516436777625</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="M3" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="N3" t="n">
         <v>4.562286607642875</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.377951795212859</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>4.562286607642875</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.876045741711437</v>
+        <v>4.417872862493068</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598225711743296</v>
+        <v>2.180352849250227</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>5.273366026243323</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
         <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4.417872862493068</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>2.180352849250227</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35346,7 +35346,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>254.1585715608745</v>
+        <v>254.1585715608746</v>
       </c>
       <c r="K11" t="n">
-        <v>432.168843488053</v>
+        <v>432.1688434880531</v>
       </c>
       <c r="L11" t="n">
-        <v>573.418172257368</v>
+        <v>573.4181722573683</v>
       </c>
       <c r="M11" t="n">
-        <v>670.027533241275</v>
+        <v>670.0275332412751</v>
       </c>
       <c r="N11" t="n">
-        <v>685.5296917252099</v>
+        <v>685.5296917252101</v>
       </c>
       <c r="O11" t="n">
-        <v>633.8562877067011</v>
+        <v>633.8562877067012</v>
       </c>
       <c r="P11" t="n">
-        <v>506.1321809570396</v>
+        <v>506.1321809570397</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.4248495102315</v>
+        <v>331.4248495102316</v>
       </c>
       <c r="R11" t="n">
         <v>106.5153846858781</v>
@@ -35492,25 +35492,25 @@
         <v>305.1808574646957</v>
       </c>
       <c r="L12" t="n">
-        <v>457.1437701295536</v>
+        <v>457.1437701295537</v>
       </c>
       <c r="M12" t="n">
-        <v>553.0176097557442</v>
+        <v>394.3015407279457</v>
       </c>
       <c r="N12" t="n">
-        <v>538.1421490270812</v>
+        <v>582.2085271143065</v>
       </c>
       <c r="O12" t="n">
-        <v>510.1628210668518</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>389.9222909142561</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.2292945931824</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.66092649998643</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,16 +35574,16 @@
         <v>401.3780496152344</v>
       </c>
       <c r="M13" t="n">
-        <v>431.9608563845744</v>
+        <v>431.9608563845745</v>
       </c>
       <c r="N13" t="n">
         <v>427.9360679124189</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5197239397573</v>
+        <v>381.5197239397574</v>
       </c>
       <c r="P13" t="n">
-        <v>307.2912034658884</v>
+        <v>307.2912034658885</v>
       </c>
       <c r="Q13" t="n">
         <v>138.2661317788064</v>
@@ -35726,10 +35726,10 @@
         <v>132.3671778419483</v>
       </c>
       <c r="K15" t="n">
-        <v>305.1808574646957</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>457.1437701295537</v>
+        <v>328.3359585927673</v>
       </c>
       <c r="M15" t="n">
         <v>553.0176097557444</v>
@@ -35738,10 +35738,10 @@
         <v>582.2085271143065</v>
       </c>
       <c r="O15" t="n">
-        <v>466.0964429796261</v>
+        <v>510.162821066852</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>389.9222909142561</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>254.1585715608745</v>
+        <v>254.1585715608746</v>
       </c>
       <c r="K17" t="n">
-        <v>432.1688434880529</v>
+        <v>432.1688434880531</v>
       </c>
       <c r="L17" t="n">
-        <v>573.418172257368</v>
+        <v>573.4181722573683</v>
       </c>
       <c r="M17" t="n">
-        <v>670.0275332412748</v>
+        <v>670.0275332412751</v>
       </c>
       <c r="N17" t="n">
-        <v>685.5296917252097</v>
+        <v>685.5296917252101</v>
       </c>
       <c r="O17" t="n">
-        <v>633.8562877067009</v>
+        <v>633.8562877067012</v>
       </c>
       <c r="P17" t="n">
-        <v>506.1321809570395</v>
+        <v>506.1321809570397</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.4248495102314</v>
+        <v>331.4248495102316</v>
       </c>
       <c r="R17" t="n">
-        <v>106.515384685878</v>
+        <v>106.5153846858781</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.3671778419483</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>189.3195771257896</v>
       </c>
       <c r="L18" t="n">
-        <v>457.1437701295535</v>
+        <v>457.1437701295537</v>
       </c>
       <c r="M18" t="n">
-        <v>553.0176097557442</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>582.2085271143063</v>
+        <v>582.2085271143065</v>
       </c>
       <c r="O18" t="n">
-        <v>510.1628210668517</v>
+        <v>510.162821066852</v>
       </c>
       <c r="P18" t="n">
-        <v>389.922290914256</v>
+        <v>389.9222909142561</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.559366305163084</v>
+        <v>210.2292945931824</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.66092649998643</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>101.084111261131</v>
       </c>
       <c r="K19" t="n">
-        <v>276.786332965061</v>
+        <v>276.7863329650611</v>
       </c>
       <c r="L19" t="n">
-        <v>401.3780496152344</v>
+        <v>401.3780496152345</v>
       </c>
       <c r="M19" t="n">
-        <v>431.9608563845744</v>
+        <v>431.9608563845745</v>
       </c>
       <c r="N19" t="n">
-        <v>427.9360679124189</v>
+        <v>427.936067912419</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5197239397573</v>
+        <v>381.5197239397574</v>
       </c>
       <c r="P19" t="n">
-        <v>307.2912034658884</v>
+        <v>307.2912034658885</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.2661317788066</v>
+        <v>138.2661317788064</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>457.1437701295536</v>
       </c>
       <c r="M21" t="n">
-        <v>553.0176097557442</v>
+        <v>189.3195771257899</v>
       </c>
       <c r="N21" t="n">
         <v>582.2085271143064</v>
@@ -36215,7 +36215,7 @@
         <v>510.1628210668518</v>
       </c>
       <c r="P21" t="n">
-        <v>26.22425828430224</v>
+        <v>389.9222909142561</v>
       </c>
       <c r="Q21" t="n">
         <v>210.2292945931823</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.084111261131</v>
+        <v>101.0841112611317</v>
       </c>
       <c r="K22" t="n">
-        <v>276.7863329650611</v>
+        <v>276.786332965061</v>
       </c>
       <c r="L22" t="n">
         <v>401.3780496152344</v>
@@ -36443,7 +36443,7 @@
         <v>457.1437701295536</v>
       </c>
       <c r="M24" t="n">
-        <v>553.0176097557442</v>
+        <v>431.0891149172849</v>
       </c>
       <c r="N24" t="n">
         <v>582.2085271143064</v>
@@ -36452,10 +36452,10 @@
         <v>510.1628210668518</v>
       </c>
       <c r="P24" t="n">
-        <v>88.30079975472326</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.2292945931823</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.084111261131</v>
+        <v>101.0841112611317</v>
       </c>
       <c r="K25" t="n">
-        <v>276.7863329650611</v>
+        <v>276.786332965061</v>
       </c>
       <c r="L25" t="n">
         <v>401.3780496152344</v>
@@ -36534,7 +36534,7 @@
         <v>307.2912034658884</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.2661317788057</v>
+        <v>138.2661317788064</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.3671778419483</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>305.1808574646957</v>
       </c>
       <c r="L27" t="n">
-        <v>225.8129153415477</v>
+        <v>457.1437701295536</v>
       </c>
       <c r="M27" t="n">
-        <v>553.0176097557442</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>582.2085271143064</v>
+        <v>466.3472467754007</v>
       </c>
       <c r="O27" t="n">
         <v>510.1628210668518</v>
@@ -36753,7 +36753,7 @@
         <v>101.084111261131</v>
       </c>
       <c r="K28" t="n">
-        <v>276.786332965061</v>
+        <v>276.7863329650611</v>
       </c>
       <c r="L28" t="n">
         <v>401.3780496152344</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.3671778419483</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>305.1808574646957</v>
       </c>
       <c r="L30" t="n">
-        <v>225.8129153415477</v>
+        <v>457.1437701295536</v>
       </c>
       <c r="M30" t="n">
-        <v>553.0176097557442</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>582.2085271143064</v>
       </c>
       <c r="O30" t="n">
-        <v>510.1628210668518</v>
+        <v>394.301540727946</v>
       </c>
       <c r="P30" t="n">
         <v>389.9222909142561</v>
@@ -36990,7 +36990,7 @@
         <v>101.084111261131</v>
       </c>
       <c r="K31" t="n">
-        <v>276.786332965061</v>
+        <v>276.7863329650611</v>
       </c>
       <c r="L31" t="n">
         <v>401.3780496152344</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>305.1808574646957</v>
       </c>
       <c r="L33" t="n">
-        <v>225.8129153415477</v>
+        <v>457.1437701295536</v>
       </c>
       <c r="M33" t="n">
         <v>553.0176097557442</v>
       </c>
       <c r="N33" t="n">
-        <v>582.2085271143064</v>
+        <v>555.8596359284568</v>
       </c>
       <c r="O33" t="n">
-        <v>510.1628210668518</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>389.9222909142561</v>
@@ -37227,7 +37227,7 @@
         <v>101.084111261131</v>
       </c>
       <c r="K34" t="n">
-        <v>276.786332965061</v>
+        <v>276.7863329650598</v>
       </c>
       <c r="L34" t="n">
         <v>401.3780496152344</v>
@@ -37236,7 +37236,7 @@
         <v>431.9608563845744</v>
       </c>
       <c r="N34" t="n">
-        <v>427.9360679124188</v>
+        <v>427.9360679124189</v>
       </c>
       <c r="O34" t="n">
         <v>381.5197239397573</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.3671778419483</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>305.1808574646957</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>457.1437701295536</v>
@@ -37397,16 +37397,16 @@
         <v>582.2085271143064</v>
       </c>
       <c r="O36" t="n">
-        <v>466.0964429796266</v>
+        <v>510.1628210668518</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>158.5914361262504</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.2292945931823</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.6609264999864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.084111261131</v>
+        <v>101.0841112611298</v>
       </c>
       <c r="K37" t="n">
-        <v>276.786332965061</v>
+        <v>276.7863329650611</v>
       </c>
       <c r="L37" t="n">
         <v>401.3780496152344</v>
@@ -37479,7 +37479,7 @@
         <v>381.5197239397573</v>
       </c>
       <c r="P37" t="n">
-        <v>307.2912034658887</v>
+        <v>307.2912034658884</v>
       </c>
       <c r="Q37" t="n">
         <v>138.2661317788064</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.3671778419483</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>305.1808574646957</v>
       </c>
       <c r="L39" t="n">
-        <v>457.1437701295536</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>553.0176097557442</v>
       </c>
       <c r="N39" t="n">
-        <v>582.2085271143064</v>
+        <v>502.8405849911584</v>
       </c>
       <c r="O39" t="n">
-        <v>466.0964429796266</v>
+        <v>510.1628210668518</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>389.9222909142561</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.2292945931823</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.6609264999864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.084111261131</v>
       </c>
       <c r="K40" t="n">
-        <v>276.786332965061</v>
+        <v>276.7863329650598</v>
       </c>
       <c r="L40" t="n">
         <v>401.3780496152344</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.3671778419483</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>305.1808574646957</v>
@@ -37868,19 +37868,19 @@
         <v>553.0176097557442</v>
       </c>
       <c r="N42" t="n">
-        <v>582.2085271143064</v>
+        <v>555.8596359284568</v>
       </c>
       <c r="O42" t="n">
-        <v>466.0964429796266</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>389.9222909142561</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.2292945931823</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.6609264999864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>685.5296917252099</v>
       </c>
       <c r="O44" t="n">
-        <v>633.8562877067011</v>
+        <v>633.8562877067016</v>
       </c>
       <c r="P44" t="n">
         <v>506.1321809570396</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.3671778419483</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>225.8129153415477</v>
+        <v>93.44573749959945</v>
       </c>
       <c r="M45" t="n">
         <v>553.0176097557442</v>
